--- a/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.972743980376897</v>
+        <v>0.9727439803768944</v>
       </c>
       <c r="D2">
-        <v>0.9957032976419823</v>
+        <v>0.9957032976419798</v>
       </c>
       <c r="E2">
-        <v>0.950277695533339</v>
+        <v>0.9502776955333372</v>
       </c>
       <c r="F2">
-        <v>0.9694344165162198</v>
+        <v>0.9694344165162172</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034338008458336</v>
+        <v>1.034338008458334</v>
       </c>
       <c r="J2">
-        <v>0.9957716403372476</v>
+        <v>0.995771640337245</v>
       </c>
       <c r="K2">
-        <v>1.00722281870671</v>
+        <v>1.007222818706707</v>
       </c>
       <c r="L2">
-        <v>0.9624761364129335</v>
+        <v>0.9624761364129319</v>
       </c>
       <c r="M2">
-        <v>0.9813366670964426</v>
+        <v>0.9813366670964401</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9844293402007886</v>
+        <v>0.9844293402007896</v>
       </c>
       <c r="D3">
-        <v>1.00494372565557</v>
+        <v>1.004943725655571</v>
       </c>
       <c r="E3">
-        <v>0.9604149111062973</v>
+        <v>0.9604149111062974</v>
       </c>
       <c r="F3">
-        <v>0.9814251954948338</v>
+        <v>0.9814251954948342</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.005353668889978</v>
       </c>
       <c r="K3">
-        <v>1.0155137389902</v>
+        <v>1.015513738990201</v>
       </c>
       <c r="L3">
-        <v>0.971580664073153</v>
+        <v>0.9715806640731531</v>
       </c>
       <c r="M3">
-        <v>0.992301393953687</v>
+        <v>0.9923013939536874</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9916121638982276</v>
+        <v>0.9916121638982262</v>
       </c>
       <c r="D4">
-        <v>1.010625059144819</v>
+        <v>1.010625059144818</v>
       </c>
       <c r="E4">
-        <v>0.9666046525476022</v>
+        <v>0.9666046525476016</v>
       </c>
       <c r="F4">
-        <v>0.9887736128020125</v>
+        <v>0.9887736128020116</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041071063756722</v>
       </c>
       <c r="J4">
-        <v>1.011232892583875</v>
+        <v>1.011232892583873</v>
       </c>
       <c r="K4">
-        <v>1.020596918365806</v>
+        <v>1.020596918365805</v>
       </c>
       <c r="L4">
-        <v>0.9771235712399031</v>
+        <v>0.9771235712399025</v>
       </c>
       <c r="M4">
-        <v>0.9990094458382147</v>
+        <v>0.9990094458382139</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,22 +535,22 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9945499422182651</v>
+        <v>0.9945499422182658</v>
       </c>
       <c r="D5">
         <v>1.012948860183534</v>
       </c>
       <c r="E5">
-        <v>0.9691269248113897</v>
+        <v>0.9691269248113904</v>
       </c>
       <c r="F5">
-        <v>0.991774322556384</v>
+        <v>0.9917743225563846</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042109138404108</v>
+        <v>1.042109138404109</v>
       </c>
       <c r="J5">
         <v>1.013634915428299</v>
@@ -559,10 +559,10 @@
         <v>1.0226727304419</v>
       </c>
       <c r="L5">
-        <v>0.9793784473456888</v>
+        <v>0.9793784473456892</v>
       </c>
       <c r="M5">
-        <v>1.001745927520606</v>
+        <v>1.001745927520607</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9950386339818136</v>
+        <v>0.9950386339818151</v>
       </c>
       <c r="D6">
-        <v>1.013335420946406</v>
+        <v>1.013335420946407</v>
       </c>
       <c r="E6">
-        <v>0.9695459646571392</v>
+        <v>0.9695459646571394</v>
       </c>
       <c r="F6">
-        <v>0.9922732138985527</v>
+        <v>0.9922732138985534</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042281521849439</v>
+        <v>1.04228152184944</v>
       </c>
       <c r="J6">
-        <v>1.014034333242465</v>
+        <v>1.014034333242466</v>
       </c>
       <c r="K6">
-        <v>1.023017845663557</v>
+        <v>1.023017845663558</v>
       </c>
       <c r="L6">
-        <v>0.9797528407182379</v>
+        <v>0.9797528407182383</v>
       </c>
       <c r="M6">
-        <v>1.002200728780141</v>
+        <v>1.002200728780142</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9916517299009333</v>
+        <v>0.991651729900937</v>
       </c>
       <c r="D7">
-        <v>1.010656355816816</v>
+        <v>1.01065635581682</v>
       </c>
       <c r="E7">
-        <v>0.9666386588726882</v>
+        <v>0.9666386588726901</v>
       </c>
       <c r="F7">
-        <v>0.9888140448036283</v>
+        <v>0.9888140448036318</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041085064597132</v>
+        <v>1.041085064597134</v>
       </c>
       <c r="J7">
-        <v>1.011265253311801</v>
+        <v>1.011265253311805</v>
       </c>
       <c r="K7">
-        <v>1.020624888243125</v>
+        <v>1.020624888243128</v>
       </c>
       <c r="L7">
-        <v>0.9771539874973753</v>
+        <v>0.9771539874973773</v>
       </c>
       <c r="M7">
-        <v>0.9990463284270544</v>
+        <v>0.9990463284270578</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9767771671652283</v>
+        <v>0.9767771671652298</v>
       </c>
       <c r="D8">
-        <v>0.9988921939254092</v>
+        <v>0.9988921939254104</v>
       </c>
       <c r="E8">
-        <v>0.9537858395020093</v>
+        <v>0.9537858395020112</v>
       </c>
       <c r="F8">
-        <v>0.9735781132901843</v>
+        <v>0.9735781132901862</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035786047183724</v>
+        <v>1.035786047183725</v>
       </c>
       <c r="J8">
-        <v>0.9990811521022958</v>
+        <v>0.9990811521022972</v>
       </c>
       <c r="K8">
-        <v>1.010087192087854</v>
+        <v>1.010087192087855</v>
       </c>
       <c r="L8">
-        <v>0.9656304654830334</v>
+        <v>0.9656304654830353</v>
       </c>
       <c r="M8">
-        <v>0.9851282931691316</v>
+        <v>0.9851282931691334</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9471794425507222</v>
+        <v>0.9471794425507231</v>
       </c>
       <c r="D9">
-        <v>0.9755068486534079</v>
+        <v>0.9755068486534088</v>
       </c>
       <c r="E9">
-        <v>0.9278187273003597</v>
+        <v>0.9278187273003603</v>
       </c>
       <c r="F9">
-        <v>0.943039903253806</v>
+        <v>0.9430399032538069</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025068870789902</v>
+        <v>1.025068870789903</v>
       </c>
       <c r="J9">
-        <v>0.9747459611772133</v>
+        <v>0.9747459611772142</v>
       </c>
       <c r="K9">
-        <v>0.9890102165272388</v>
+        <v>0.9890102165272393</v>
       </c>
       <c r="L9">
-        <v>0.942202558385049</v>
+        <v>0.9422025583850493</v>
       </c>
       <c r="M9">
-        <v>0.9571300627952772</v>
+        <v>0.9571300627952778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9242596843171625</v>
+        <v>0.9242596843171628</v>
       </c>
       <c r="D10">
-        <v>0.9574348226339737</v>
+        <v>0.9574348226339738</v>
       </c>
       <c r="E10">
-        <v>0.9073595261000518</v>
+        <v>0.9073595261000514</v>
       </c>
       <c r="F10">
-        <v>0.9191724707728223</v>
+        <v>0.9191724707728224</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.01665413530356</v>
       </c>
       <c r="J10">
-        <v>0.955837692960541</v>
+        <v>0.9558376929605411</v>
       </c>
       <c r="K10">
-        <v>0.9726176206610514</v>
+        <v>0.9726176206610517</v>
       </c>
       <c r="L10">
-        <v>0.9236303831650665</v>
+        <v>0.9236303831650663</v>
       </c>
       <c r="M10">
-        <v>0.9351724009153538</v>
+        <v>0.9351724009153537</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9132716535091545</v>
+        <v>0.9132716535091555</v>
       </c>
       <c r="D11">
-        <v>0.9487860738848094</v>
+        <v>0.94878607388481</v>
       </c>
       <c r="E11">
-        <v>0.8974405377020577</v>
+        <v>0.8974405377020593</v>
       </c>
       <c r="F11">
-        <v>0.9076551365508517</v>
+        <v>0.9076551365508529</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.012593839192745</v>
       </c>
       <c r="J11">
-        <v>0.9467572744082778</v>
+        <v>0.9467572744082786</v>
       </c>
       <c r="K11">
-        <v>0.9647430560947212</v>
+        <v>0.9647430560947219</v>
       </c>
       <c r="L11">
-        <v>0.9145956336918162</v>
+        <v>0.9145956336918178</v>
       </c>
       <c r="M11">
-        <v>0.9245573470037874</v>
+        <v>0.9245573470037883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.908991658865103</v>
+        <v>0.9089916588651007</v>
       </c>
       <c r="D12">
-        <v>0.9454202666209602</v>
+        <v>0.9454202666209582</v>
       </c>
       <c r="E12">
-        <v>0.8935569706454178</v>
+        <v>0.8935569706454161</v>
       </c>
       <c r="F12">
-        <v>0.9031548579828433</v>
+        <v>0.9031548579828411</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011008527160884</v>
+        <v>1.011008527160883</v>
       </c>
       <c r="J12">
-        <v>0.9432179209869331</v>
+        <v>0.9432179209869309</v>
       </c>
       <c r="K12">
-        <v>0.9616735549854599</v>
+        <v>0.9616735549854579</v>
       </c>
       <c r="L12">
-        <v>0.9110532784963826</v>
+        <v>0.9110532784963811</v>
       </c>
       <c r="M12">
-        <v>0.920406595815682</v>
+        <v>0.9204065958156799</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9099195062738491</v>
+        <v>0.9099195062738492</v>
       </c>
       <c r="D13">
         <v>0.9461497816273627</v>
       </c>
       <c r="E13">
-        <v>0.8943998429366107</v>
+        <v>0.8943998429366112</v>
       </c>
       <c r="F13">
-        <v>0.9041311514103976</v>
+        <v>0.9041311514103982</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011352368580401</v>
       </c>
       <c r="J13">
-        <v>0.9439853164008276</v>
+        <v>0.9439853164008277</v>
       </c>
       <c r="K13">
-        <v>0.9623390820072768</v>
+        <v>0.9623390820072767</v>
       </c>
       <c r="L13">
-        <v>0.9118223271626729</v>
+        <v>0.9118223271626732</v>
       </c>
       <c r="M13">
-        <v>0.9213072009039845</v>
+        <v>0.921307200903985</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9129221964191835</v>
+        <v>0.9129221964191827</v>
       </c>
       <c r="D14">
-        <v>0.9485111941851492</v>
+        <v>0.9485111941851487</v>
       </c>
       <c r="E14">
-        <v>0.8971238733475571</v>
+        <v>0.8971238733475562</v>
       </c>
       <c r="F14">
-        <v>0.9072879969207958</v>
+        <v>0.9072879969207948</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.01246447473298</v>
       </c>
       <c r="J14">
-        <v>0.9464683386480416</v>
+        <v>0.9464683386480409</v>
       </c>
       <c r="K14">
-        <v>0.9644924789316515</v>
+        <v>0.9644924789316509</v>
       </c>
       <c r="L14">
-        <v>0.9143068942703567</v>
+        <v>0.9143068942703558</v>
       </c>
       <c r="M14">
-        <v>0.9242187839390356</v>
+        <v>0.9242187839390347</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9147445305340109</v>
+        <v>0.9147445305340104</v>
       </c>
       <c r="D15">
-        <v>0.9499447505313541</v>
+        <v>0.9499447505313537</v>
       </c>
       <c r="E15">
-        <v>0.8987743762930602</v>
+        <v>0.8987743762930601</v>
       </c>
       <c r="F15">
-        <v>0.909201955239869</v>
+        <v>0.9092019552398685</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013138928831953</v>
+        <v>1.013138928831952</v>
       </c>
       <c r="J15">
-        <v>0.9479749718023776</v>
+        <v>0.9479749718023768</v>
       </c>
       <c r="K15">
-        <v>0.9657990887297798</v>
+        <v>0.9657990887297792</v>
       </c>
       <c r="L15">
-        <v>0.9158116456500813</v>
+        <v>0.9158116456500811</v>
       </c>
       <c r="M15">
-        <v>0.9259836457284235</v>
+        <v>0.925983645728423</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9249635233077715</v>
+        <v>0.9249635233077746</v>
       </c>
       <c r="D16">
-        <v>0.9579891803347196</v>
+        <v>0.9579891803347222</v>
       </c>
       <c r="E16">
-        <v>0.9079924089066389</v>
+        <v>0.9079924089066411</v>
       </c>
       <c r="F16">
-        <v>0.919908491890999</v>
+        <v>0.919908491891002</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016913702905621</v>
+        <v>1.016913702905623</v>
       </c>
       <c r="J16">
-        <v>0.9564190219637191</v>
+        <v>0.9564190219637222</v>
       </c>
       <c r="K16">
-        <v>0.9731217186616473</v>
+        <v>0.9731217186616499</v>
       </c>
       <c r="L16">
-        <v>0.9242062028417442</v>
+        <v>0.9242062028417465</v>
       </c>
       <c r="M16">
-        <v>0.9358503634613464</v>
+        <v>0.9358503634613494</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9310656540919434</v>
+        <v>0.9310656540919423</v>
       </c>
       <c r="D17">
-        <v>0.962797066618125</v>
+        <v>0.962797066618124</v>
       </c>
       <c r="E17">
-        <v>0.913467028996966</v>
+        <v>0.9134670289969646</v>
       </c>
       <c r="F17">
-        <v>0.9262812264522705</v>
+        <v>0.9262812264522688</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.019161256861774</v>
       </c>
       <c r="J17">
-        <v>0.9614573178749897</v>
+        <v>0.9614573178749888</v>
       </c>
       <c r="K17">
-        <v>0.9774904335962604</v>
+        <v>0.9774904335962594</v>
       </c>
       <c r="L17">
-        <v>0.9291838530959246</v>
+        <v>0.9291838530959234</v>
       </c>
       <c r="M17">
-        <v>0.9417182956374089</v>
+        <v>0.9417182956374073</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.934525499406994</v>
+        <v>0.9345254994069945</v>
       </c>
       <c r="D18">
-        <v>0.965524415440092</v>
+        <v>0.9655244154400927</v>
       </c>
       <c r="E18">
-        <v>0.9165613187394847</v>
+        <v>0.9165613187394857</v>
       </c>
       <c r="F18">
-        <v>0.9298879242746855</v>
+        <v>0.9298879242746863</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.020433215544211</v>
       </c>
       <c r="J18">
-        <v>0.9643125769701183</v>
+        <v>0.9643125769701187</v>
       </c>
       <c r="K18">
-        <v>0.9799660163915405</v>
+        <v>0.979966016391541</v>
       </c>
       <c r="L18">
-        <v>0.9319945253534959</v>
+        <v>0.9319945253534969</v>
       </c>
       <c r="M18">
-        <v>0.9450375657599995</v>
+        <v>0.9450375657600004</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9356893127980835</v>
+        <v>0.9356893127980795</v>
       </c>
       <c r="D19">
-        <v>0.9664420410938327</v>
+        <v>0.9664420410938293</v>
       </c>
       <c r="E19">
-        <v>0.9176005887549784</v>
+        <v>0.9176005887549753</v>
       </c>
       <c r="F19">
-        <v>0.9311000854040977</v>
+        <v>0.9311000854040935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020860665400583</v>
+        <v>1.020860665400581</v>
       </c>
       <c r="J19">
-        <v>0.9652727844326086</v>
+        <v>0.9652727844326047</v>
       </c>
       <c r="K19">
-        <v>0.9807984996910258</v>
+        <v>0.9807984996910224</v>
       </c>
       <c r="L19">
-        <v>0.9329380843604897</v>
+        <v>0.9329380843604864</v>
       </c>
       <c r="M19">
-        <v>0.9461528360339472</v>
+        <v>0.946152836033943</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9304214728183617</v>
+        <v>0.9304214728183612</v>
       </c>
       <c r="D20">
-        <v>0.9622893712797028</v>
+        <v>0.9622893712797024</v>
       </c>
       <c r="E20">
-        <v>0.9128901320086827</v>
+        <v>0.9128901320086813</v>
       </c>
       <c r="F20">
-        <v>0.9256091824509063</v>
+        <v>0.9256091824509053</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.018924238148883</v>
       </c>
       <c r="J20">
-        <v>0.9609255890061821</v>
+        <v>0.9609255890061816</v>
       </c>
       <c r="K20">
-        <v>0.977029392239948</v>
+        <v>0.9770293922399478</v>
       </c>
       <c r="L20">
-        <v>0.9286596128951583</v>
+        <v>0.9286596128951569</v>
       </c>
       <c r="M20">
-        <v>0.9410996680488406</v>
+        <v>0.9410996680488394</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9120438468802915</v>
+        <v>0.9120438468802945</v>
       </c>
       <c r="D21">
-        <v>0.9478203432836133</v>
+        <v>0.9478203432836158</v>
       </c>
       <c r="E21">
-        <v>0.896327614897696</v>
+        <v>0.8963276148976987</v>
       </c>
       <c r="F21">
-        <v>0.9063649661371943</v>
+        <v>0.9063649661371975</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012139261662958</v>
+        <v>1.012139261662959</v>
       </c>
       <c r="J21">
-        <v>0.945742068976501</v>
+        <v>0.9457420689765039</v>
       </c>
       <c r="K21">
-        <v>0.9638626255941963</v>
+        <v>0.9638626255941989</v>
       </c>
       <c r="L21">
-        <v>0.9135807725202144</v>
+        <v>0.913580772520217</v>
       </c>
       <c r="M21">
-        <v>0.9233675491105658</v>
+        <v>0.9233675491105691</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8993082756901163</v>
+        <v>0.8993082756901175</v>
       </c>
       <c r="D22">
-        <v>0.9378118267233914</v>
+        <v>0.9378118267233924</v>
       </c>
       <c r="E22">
-        <v>0.8847279858113677</v>
+        <v>0.8847279858113679</v>
       </c>
       <c r="F22">
-        <v>0.8929423463137225</v>
+        <v>0.8929423463137234</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007414958490479</v>
+        <v>1.00741495849048</v>
       </c>
       <c r="J22">
-        <v>0.9352055990370033</v>
+        <v>0.9352055990370044</v>
       </c>
       <c r="K22">
-        <v>0.9547248143535398</v>
+        <v>0.9547248143535408</v>
       </c>
       <c r="L22">
-        <v>0.9029900917907192</v>
+        <v>0.9029900917907194</v>
       </c>
       <c r="M22">
-        <v>0.9109814158920296</v>
+        <v>0.9109814158920304</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9061889438103531</v>
+        <v>0.9061889438103508</v>
       </c>
       <c r="D23">
-        <v>0.9432171546461546</v>
+        <v>0.9432171546461526</v>
       </c>
       <c r="E23">
-        <v>0.8910076650463052</v>
+        <v>0.8910076650463025</v>
       </c>
       <c r="F23">
-        <v>0.9002034451637067</v>
+        <v>0.9002034451637038</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009969359363975</v>
+        <v>1.009969359363974</v>
       </c>
       <c r="J23">
-        <v>0.9408995168855947</v>
+        <v>0.9408995168855924</v>
       </c>
       <c r="K23">
-        <v>0.959662901329651</v>
+        <v>0.959662901329649</v>
       </c>
       <c r="L23">
-        <v>0.9087264861135856</v>
+        <v>0.9087264861135829</v>
       </c>
       <c r="M23">
-        <v>0.9176835385866887</v>
+        <v>0.9176835385866857</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9307128551158494</v>
+        <v>0.9307128551158513</v>
       </c>
       <c r="D24">
-        <v>0.9625190128409269</v>
+        <v>0.9625190128409286</v>
       </c>
       <c r="E24">
-        <v>0.913151109932244</v>
+        <v>0.9131511099322456</v>
       </c>
       <c r="F24">
-        <v>0.9259131882618646</v>
+        <v>0.9259131882618667</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.019031456200109</v>
+        <v>1.01903145620011</v>
       </c>
       <c r="J24">
-        <v>0.9611661101278772</v>
+        <v>0.9611661101278791</v>
       </c>
       <c r="K24">
-        <v>0.977237939411809</v>
+        <v>0.9772379394118108</v>
       </c>
       <c r="L24">
-        <v>0.9288967783371993</v>
+        <v>0.9288967783372011</v>
       </c>
       <c r="M24">
-        <v>0.9413795158196424</v>
+        <v>0.9413795158196444</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9553118300617499</v>
+        <v>0.9553118300617509</v>
       </c>
       <c r="D25">
-        <v>0.9819278829069954</v>
+        <v>0.9819278829069963</v>
       </c>
       <c r="E25">
-        <v>0.9350044994049934</v>
+        <v>0.9350044994049939</v>
       </c>
       <c r="F25">
-        <v>0.9514611709937181</v>
+        <v>0.9514611709937192</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.028032838677279</v>
       </c>
       <c r="J25">
-        <v>0.9814427533519394</v>
+        <v>0.9814427533519404</v>
       </c>
       <c r="K25">
-        <v>0.9948133770096836</v>
+        <v>0.9948133770096845</v>
       </c>
       <c r="L25">
-        <v>0.9487031905166853</v>
+        <v>0.9487031905166855</v>
       </c>
       <c r="M25">
-        <v>0.9648628216032711</v>
+        <v>0.9648628216032724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9727439803768944</v>
+        <v>0.972743980376897</v>
       </c>
       <c r="D2">
-        <v>0.9957032976419798</v>
+        <v>0.9957032976419823</v>
       </c>
       <c r="E2">
-        <v>0.9502776955333372</v>
+        <v>0.950277695533339</v>
       </c>
       <c r="F2">
-        <v>0.9694344165162172</v>
+        <v>0.9694344165162198</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034338008458334</v>
+        <v>1.034338008458336</v>
       </c>
       <c r="J2">
-        <v>0.995771640337245</v>
+        <v>0.9957716403372476</v>
       </c>
       <c r="K2">
-        <v>1.007222818706707</v>
+        <v>1.00722281870671</v>
       </c>
       <c r="L2">
-        <v>0.9624761364129319</v>
+        <v>0.9624761364129335</v>
       </c>
       <c r="M2">
-        <v>0.9813366670964401</v>
+        <v>0.9813366670964426</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9844293402007896</v>
+        <v>0.9844293402007886</v>
       </c>
       <c r="D3">
-        <v>1.004943725655571</v>
+        <v>1.00494372565557</v>
       </c>
       <c r="E3">
-        <v>0.9604149111062974</v>
+        <v>0.9604149111062973</v>
       </c>
       <c r="F3">
-        <v>0.9814251954948342</v>
+        <v>0.9814251954948338</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.005353668889978</v>
       </c>
       <c r="K3">
-        <v>1.015513738990201</v>
+        <v>1.0155137389902</v>
       </c>
       <c r="L3">
-        <v>0.9715806640731531</v>
+        <v>0.971580664073153</v>
       </c>
       <c r="M3">
-        <v>0.9923013939536874</v>
+        <v>0.992301393953687</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9916121638982262</v>
+        <v>0.9916121638982276</v>
       </c>
       <c r="D4">
-        <v>1.010625059144818</v>
+        <v>1.010625059144819</v>
       </c>
       <c r="E4">
-        <v>0.9666046525476016</v>
+        <v>0.9666046525476022</v>
       </c>
       <c r="F4">
-        <v>0.9887736128020116</v>
+        <v>0.9887736128020125</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041071063756722</v>
       </c>
       <c r="J4">
-        <v>1.011232892583873</v>
+        <v>1.011232892583875</v>
       </c>
       <c r="K4">
-        <v>1.020596918365805</v>
+        <v>1.020596918365806</v>
       </c>
       <c r="L4">
-        <v>0.9771235712399025</v>
+        <v>0.9771235712399031</v>
       </c>
       <c r="M4">
-        <v>0.9990094458382139</v>
+        <v>0.9990094458382147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,22 +535,22 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9945499422182658</v>
+        <v>0.9945499422182651</v>
       </c>
       <c r="D5">
         <v>1.012948860183534</v>
       </c>
       <c r="E5">
-        <v>0.9691269248113904</v>
+        <v>0.9691269248113897</v>
       </c>
       <c r="F5">
-        <v>0.9917743225563846</v>
+        <v>0.991774322556384</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042109138404109</v>
+        <v>1.042109138404108</v>
       </c>
       <c r="J5">
         <v>1.013634915428299</v>
@@ -559,10 +559,10 @@
         <v>1.0226727304419</v>
       </c>
       <c r="L5">
-        <v>0.9793784473456892</v>
+        <v>0.9793784473456888</v>
       </c>
       <c r="M5">
-        <v>1.001745927520607</v>
+        <v>1.001745927520606</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9950386339818151</v>
+        <v>0.9950386339818136</v>
       </c>
       <c r="D6">
-        <v>1.013335420946407</v>
+        <v>1.013335420946406</v>
       </c>
       <c r="E6">
-        <v>0.9695459646571394</v>
+        <v>0.9695459646571392</v>
       </c>
       <c r="F6">
-        <v>0.9922732138985534</v>
+        <v>0.9922732138985527</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04228152184944</v>
+        <v>1.042281521849439</v>
       </c>
       <c r="J6">
-        <v>1.014034333242466</v>
+        <v>1.014034333242465</v>
       </c>
       <c r="K6">
-        <v>1.023017845663558</v>
+        <v>1.023017845663557</v>
       </c>
       <c r="L6">
-        <v>0.9797528407182383</v>
+        <v>0.9797528407182379</v>
       </c>
       <c r="M6">
-        <v>1.002200728780142</v>
+        <v>1.002200728780141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.991651729900937</v>
+        <v>0.9916517299009333</v>
       </c>
       <c r="D7">
-        <v>1.01065635581682</v>
+        <v>1.010656355816816</v>
       </c>
       <c r="E7">
-        <v>0.9666386588726901</v>
+        <v>0.9666386588726882</v>
       </c>
       <c r="F7">
-        <v>0.9888140448036318</v>
+        <v>0.9888140448036283</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041085064597134</v>
+        <v>1.041085064597132</v>
       </c>
       <c r="J7">
-        <v>1.011265253311805</v>
+        <v>1.011265253311801</v>
       </c>
       <c r="K7">
-        <v>1.020624888243128</v>
+        <v>1.020624888243125</v>
       </c>
       <c r="L7">
-        <v>0.9771539874973773</v>
+        <v>0.9771539874973753</v>
       </c>
       <c r="M7">
-        <v>0.9990463284270578</v>
+        <v>0.9990463284270544</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9767771671652298</v>
+        <v>0.9767771671652283</v>
       </c>
       <c r="D8">
-        <v>0.9988921939254104</v>
+        <v>0.9988921939254092</v>
       </c>
       <c r="E8">
-        <v>0.9537858395020112</v>
+        <v>0.9537858395020093</v>
       </c>
       <c r="F8">
-        <v>0.9735781132901862</v>
+        <v>0.9735781132901843</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035786047183725</v>
+        <v>1.035786047183724</v>
       </c>
       <c r="J8">
-        <v>0.9990811521022972</v>
+        <v>0.9990811521022958</v>
       </c>
       <c r="K8">
-        <v>1.010087192087855</v>
+        <v>1.010087192087854</v>
       </c>
       <c r="L8">
-        <v>0.9656304654830353</v>
+        <v>0.9656304654830334</v>
       </c>
       <c r="M8">
-        <v>0.9851282931691334</v>
+        <v>0.9851282931691316</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9471794425507231</v>
+        <v>0.9471794425507222</v>
       </c>
       <c r="D9">
-        <v>0.9755068486534088</v>
+        <v>0.9755068486534079</v>
       </c>
       <c r="E9">
-        <v>0.9278187273003603</v>
+        <v>0.9278187273003597</v>
       </c>
       <c r="F9">
-        <v>0.9430399032538069</v>
+        <v>0.943039903253806</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025068870789903</v>
+        <v>1.025068870789902</v>
       </c>
       <c r="J9">
-        <v>0.9747459611772142</v>
+        <v>0.9747459611772133</v>
       </c>
       <c r="K9">
-        <v>0.9890102165272393</v>
+        <v>0.9890102165272388</v>
       </c>
       <c r="L9">
-        <v>0.9422025583850493</v>
+        <v>0.942202558385049</v>
       </c>
       <c r="M9">
-        <v>0.9571300627952778</v>
+        <v>0.9571300627952772</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9242596843171628</v>
+        <v>0.9242596843171625</v>
       </c>
       <c r="D10">
-        <v>0.9574348226339738</v>
+        <v>0.9574348226339737</v>
       </c>
       <c r="E10">
-        <v>0.9073595261000514</v>
+        <v>0.9073595261000518</v>
       </c>
       <c r="F10">
-        <v>0.9191724707728224</v>
+        <v>0.9191724707728223</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.01665413530356</v>
       </c>
       <c r="J10">
-        <v>0.9558376929605411</v>
+        <v>0.955837692960541</v>
       </c>
       <c r="K10">
-        <v>0.9726176206610517</v>
+        <v>0.9726176206610514</v>
       </c>
       <c r="L10">
-        <v>0.9236303831650663</v>
+        <v>0.9236303831650665</v>
       </c>
       <c r="M10">
-        <v>0.9351724009153537</v>
+        <v>0.9351724009153538</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9132716535091555</v>
+        <v>0.9132716535091545</v>
       </c>
       <c r="D11">
-        <v>0.94878607388481</v>
+        <v>0.9487860738848094</v>
       </c>
       <c r="E11">
-        <v>0.8974405377020593</v>
+        <v>0.8974405377020577</v>
       </c>
       <c r="F11">
-        <v>0.9076551365508529</v>
+        <v>0.9076551365508517</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.012593839192745</v>
       </c>
       <c r="J11">
-        <v>0.9467572744082786</v>
+        <v>0.9467572744082778</v>
       </c>
       <c r="K11">
-        <v>0.9647430560947219</v>
+        <v>0.9647430560947212</v>
       </c>
       <c r="L11">
-        <v>0.9145956336918178</v>
+        <v>0.9145956336918162</v>
       </c>
       <c r="M11">
-        <v>0.9245573470037883</v>
+        <v>0.9245573470037874</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9089916588651007</v>
+        <v>0.908991658865103</v>
       </c>
       <c r="D12">
-        <v>0.9454202666209582</v>
+        <v>0.9454202666209602</v>
       </c>
       <c r="E12">
-        <v>0.8935569706454161</v>
+        <v>0.8935569706454178</v>
       </c>
       <c r="F12">
-        <v>0.9031548579828411</v>
+        <v>0.9031548579828433</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011008527160883</v>
+        <v>1.011008527160884</v>
       </c>
       <c r="J12">
-        <v>0.9432179209869309</v>
+        <v>0.9432179209869331</v>
       </c>
       <c r="K12">
-        <v>0.9616735549854579</v>
+        <v>0.9616735549854599</v>
       </c>
       <c r="L12">
-        <v>0.9110532784963811</v>
+        <v>0.9110532784963826</v>
       </c>
       <c r="M12">
-        <v>0.9204065958156799</v>
+        <v>0.920406595815682</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9099195062738492</v>
+        <v>0.9099195062738491</v>
       </c>
       <c r="D13">
         <v>0.9461497816273627</v>
       </c>
       <c r="E13">
-        <v>0.8943998429366112</v>
+        <v>0.8943998429366107</v>
       </c>
       <c r="F13">
-        <v>0.9041311514103982</v>
+        <v>0.9041311514103976</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011352368580401</v>
       </c>
       <c r="J13">
-        <v>0.9439853164008277</v>
+        <v>0.9439853164008276</v>
       </c>
       <c r="K13">
-        <v>0.9623390820072767</v>
+        <v>0.9623390820072768</v>
       </c>
       <c r="L13">
-        <v>0.9118223271626732</v>
+        <v>0.9118223271626729</v>
       </c>
       <c r="M13">
-        <v>0.921307200903985</v>
+        <v>0.9213072009039845</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9129221964191827</v>
+        <v>0.9129221964191835</v>
       </c>
       <c r="D14">
-        <v>0.9485111941851487</v>
+        <v>0.9485111941851492</v>
       </c>
       <c r="E14">
-        <v>0.8971238733475562</v>
+        <v>0.8971238733475571</v>
       </c>
       <c r="F14">
-        <v>0.9072879969207948</v>
+        <v>0.9072879969207958</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.01246447473298</v>
       </c>
       <c r="J14">
-        <v>0.9464683386480409</v>
+        <v>0.9464683386480416</v>
       </c>
       <c r="K14">
-        <v>0.9644924789316509</v>
+        <v>0.9644924789316515</v>
       </c>
       <c r="L14">
-        <v>0.9143068942703558</v>
+        <v>0.9143068942703567</v>
       </c>
       <c r="M14">
-        <v>0.9242187839390347</v>
+        <v>0.9242187839390356</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9147445305340104</v>
+        <v>0.9147445305340109</v>
       </c>
       <c r="D15">
-        <v>0.9499447505313537</v>
+        <v>0.9499447505313541</v>
       </c>
       <c r="E15">
-        <v>0.8987743762930601</v>
+        <v>0.8987743762930602</v>
       </c>
       <c r="F15">
-        <v>0.9092019552398685</v>
+        <v>0.909201955239869</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013138928831952</v>
+        <v>1.013138928831953</v>
       </c>
       <c r="J15">
-        <v>0.9479749718023768</v>
+        <v>0.9479749718023776</v>
       </c>
       <c r="K15">
-        <v>0.9657990887297792</v>
+        <v>0.9657990887297798</v>
       </c>
       <c r="L15">
-        <v>0.9158116456500811</v>
+        <v>0.9158116456500813</v>
       </c>
       <c r="M15">
-        <v>0.925983645728423</v>
+        <v>0.9259836457284235</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9249635233077746</v>
+        <v>0.9249635233077715</v>
       </c>
       <c r="D16">
-        <v>0.9579891803347222</v>
+        <v>0.9579891803347196</v>
       </c>
       <c r="E16">
-        <v>0.9079924089066411</v>
+        <v>0.9079924089066389</v>
       </c>
       <c r="F16">
-        <v>0.919908491891002</v>
+        <v>0.919908491890999</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016913702905623</v>
+        <v>1.016913702905621</v>
       </c>
       <c r="J16">
-        <v>0.9564190219637222</v>
+        <v>0.9564190219637191</v>
       </c>
       <c r="K16">
-        <v>0.9731217186616499</v>
+        <v>0.9731217186616473</v>
       </c>
       <c r="L16">
-        <v>0.9242062028417465</v>
+        <v>0.9242062028417442</v>
       </c>
       <c r="M16">
-        <v>0.9358503634613494</v>
+        <v>0.9358503634613464</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9310656540919423</v>
+        <v>0.9310656540919434</v>
       </c>
       <c r="D17">
-        <v>0.962797066618124</v>
+        <v>0.962797066618125</v>
       </c>
       <c r="E17">
-        <v>0.9134670289969646</v>
+        <v>0.913467028996966</v>
       </c>
       <c r="F17">
-        <v>0.9262812264522688</v>
+        <v>0.9262812264522705</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.019161256861774</v>
       </c>
       <c r="J17">
-        <v>0.9614573178749888</v>
+        <v>0.9614573178749897</v>
       </c>
       <c r="K17">
-        <v>0.9774904335962594</v>
+        <v>0.9774904335962604</v>
       </c>
       <c r="L17">
-        <v>0.9291838530959234</v>
+        <v>0.9291838530959246</v>
       </c>
       <c r="M17">
-        <v>0.9417182956374073</v>
+        <v>0.9417182956374089</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9345254994069945</v>
+        <v>0.934525499406994</v>
       </c>
       <c r="D18">
-        <v>0.9655244154400927</v>
+        <v>0.965524415440092</v>
       </c>
       <c r="E18">
-        <v>0.9165613187394857</v>
+        <v>0.9165613187394847</v>
       </c>
       <c r="F18">
-        <v>0.9298879242746863</v>
+        <v>0.9298879242746855</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.020433215544211</v>
       </c>
       <c r="J18">
-        <v>0.9643125769701187</v>
+        <v>0.9643125769701183</v>
       </c>
       <c r="K18">
-        <v>0.979966016391541</v>
+        <v>0.9799660163915405</v>
       </c>
       <c r="L18">
-        <v>0.9319945253534969</v>
+        <v>0.9319945253534959</v>
       </c>
       <c r="M18">
-        <v>0.9450375657600004</v>
+        <v>0.9450375657599995</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9356893127980795</v>
+        <v>0.9356893127980835</v>
       </c>
       <c r="D19">
-        <v>0.9664420410938293</v>
+        <v>0.9664420410938327</v>
       </c>
       <c r="E19">
-        <v>0.9176005887549753</v>
+        <v>0.9176005887549784</v>
       </c>
       <c r="F19">
-        <v>0.9311000854040935</v>
+        <v>0.9311000854040977</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020860665400581</v>
+        <v>1.020860665400583</v>
       </c>
       <c r="J19">
-        <v>0.9652727844326047</v>
+        <v>0.9652727844326086</v>
       </c>
       <c r="K19">
-        <v>0.9807984996910224</v>
+        <v>0.9807984996910258</v>
       </c>
       <c r="L19">
-        <v>0.9329380843604864</v>
+        <v>0.9329380843604897</v>
       </c>
       <c r="M19">
-        <v>0.946152836033943</v>
+        <v>0.9461528360339472</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9304214728183612</v>
+        <v>0.9304214728183617</v>
       </c>
       <c r="D20">
-        <v>0.9622893712797024</v>
+        <v>0.9622893712797028</v>
       </c>
       <c r="E20">
-        <v>0.9128901320086813</v>
+        <v>0.9128901320086827</v>
       </c>
       <c r="F20">
-        <v>0.9256091824509053</v>
+        <v>0.9256091824509063</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.018924238148883</v>
       </c>
       <c r="J20">
-        <v>0.9609255890061816</v>
+        <v>0.9609255890061821</v>
       </c>
       <c r="K20">
-        <v>0.9770293922399478</v>
+        <v>0.977029392239948</v>
       </c>
       <c r="L20">
-        <v>0.9286596128951569</v>
+        <v>0.9286596128951583</v>
       </c>
       <c r="M20">
-        <v>0.9410996680488394</v>
+        <v>0.9410996680488406</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9120438468802945</v>
+        <v>0.9120438468802915</v>
       </c>
       <c r="D21">
-        <v>0.9478203432836158</v>
+        <v>0.9478203432836133</v>
       </c>
       <c r="E21">
-        <v>0.8963276148976987</v>
+        <v>0.896327614897696</v>
       </c>
       <c r="F21">
-        <v>0.9063649661371975</v>
+        <v>0.9063649661371943</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012139261662959</v>
+        <v>1.012139261662958</v>
       </c>
       <c r="J21">
-        <v>0.9457420689765039</v>
+        <v>0.945742068976501</v>
       </c>
       <c r="K21">
-        <v>0.9638626255941989</v>
+        <v>0.9638626255941963</v>
       </c>
       <c r="L21">
-        <v>0.913580772520217</v>
+        <v>0.9135807725202144</v>
       </c>
       <c r="M21">
-        <v>0.9233675491105691</v>
+        <v>0.9233675491105658</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8993082756901175</v>
+        <v>0.8993082756901163</v>
       </c>
       <c r="D22">
-        <v>0.9378118267233924</v>
+        <v>0.9378118267233914</v>
       </c>
       <c r="E22">
-        <v>0.8847279858113679</v>
+        <v>0.8847279858113677</v>
       </c>
       <c r="F22">
-        <v>0.8929423463137234</v>
+        <v>0.8929423463137225</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.00741495849048</v>
+        <v>1.007414958490479</v>
       </c>
       <c r="J22">
-        <v>0.9352055990370044</v>
+        <v>0.9352055990370033</v>
       </c>
       <c r="K22">
-        <v>0.9547248143535408</v>
+        <v>0.9547248143535398</v>
       </c>
       <c r="L22">
-        <v>0.9029900917907194</v>
+        <v>0.9029900917907192</v>
       </c>
       <c r="M22">
-        <v>0.9109814158920304</v>
+        <v>0.9109814158920296</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9061889438103508</v>
+        <v>0.9061889438103531</v>
       </c>
       <c r="D23">
-        <v>0.9432171546461526</v>
+        <v>0.9432171546461546</v>
       </c>
       <c r="E23">
-        <v>0.8910076650463025</v>
+        <v>0.8910076650463052</v>
       </c>
       <c r="F23">
-        <v>0.9002034451637038</v>
+        <v>0.9002034451637067</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009969359363974</v>
+        <v>1.009969359363975</v>
       </c>
       <c r="J23">
-        <v>0.9408995168855924</v>
+        <v>0.9408995168855947</v>
       </c>
       <c r="K23">
-        <v>0.959662901329649</v>
+        <v>0.959662901329651</v>
       </c>
       <c r="L23">
-        <v>0.9087264861135829</v>
+        <v>0.9087264861135856</v>
       </c>
       <c r="M23">
-        <v>0.9176835385866857</v>
+        <v>0.9176835385866887</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9307128551158513</v>
+        <v>0.9307128551158494</v>
       </c>
       <c r="D24">
-        <v>0.9625190128409286</v>
+        <v>0.9625190128409269</v>
       </c>
       <c r="E24">
-        <v>0.9131511099322456</v>
+        <v>0.913151109932244</v>
       </c>
       <c r="F24">
-        <v>0.9259131882618667</v>
+        <v>0.9259131882618646</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01903145620011</v>
+        <v>1.019031456200109</v>
       </c>
       <c r="J24">
-        <v>0.9611661101278791</v>
+        <v>0.9611661101278772</v>
       </c>
       <c r="K24">
-        <v>0.9772379394118108</v>
+        <v>0.977237939411809</v>
       </c>
       <c r="L24">
-        <v>0.9288967783372011</v>
+        <v>0.9288967783371993</v>
       </c>
       <c r="M24">
-        <v>0.9413795158196444</v>
+        <v>0.9413795158196424</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9553118300617509</v>
+        <v>0.9553118300617499</v>
       </c>
       <c r="D25">
-        <v>0.9819278829069963</v>
+        <v>0.9819278829069954</v>
       </c>
       <c r="E25">
-        <v>0.9350044994049939</v>
+        <v>0.9350044994049934</v>
       </c>
       <c r="F25">
-        <v>0.9514611709937192</v>
+        <v>0.9514611709937181</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.028032838677279</v>
       </c>
       <c r="J25">
-        <v>0.9814427533519404</v>
+        <v>0.9814427533519394</v>
       </c>
       <c r="K25">
-        <v>0.9948133770096845</v>
+        <v>0.9948133770096836</v>
       </c>
       <c r="L25">
-        <v>0.9487031905166855</v>
+        <v>0.9487031905166853</v>
       </c>
       <c r="M25">
-        <v>0.9648628216032724</v>
+        <v>0.9648628216032711</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.972743980376897</v>
+        <v>0.9763431753630142</v>
       </c>
       <c r="D2">
-        <v>0.9957032976419823</v>
+        <v>0.9985621203759416</v>
       </c>
       <c r="E2">
-        <v>0.950277695533339</v>
+        <v>0.951536229761646</v>
       </c>
       <c r="F2">
-        <v>0.9694344165162198</v>
+        <v>0.9721871975201641</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034338008458336</v>
+        <v>1.035788081385562</v>
       </c>
       <c r="J2">
-        <v>0.9957716403372476</v>
+        <v>0.999255238803476</v>
       </c>
       <c r="K2">
-        <v>1.00722281870671</v>
+        <v>1.01004152356008</v>
       </c>
       <c r="L2">
-        <v>0.9624761364129335</v>
+        <v>0.9637147433107123</v>
       </c>
       <c r="M2">
-        <v>0.9813366670964426</v>
+        <v>0.9840481067649062</v>
+      </c>
+      <c r="N2">
+        <v>1.000674295858755</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9844293402007886</v>
+        <v>0.9879846678935231</v>
       </c>
       <c r="D3">
-        <v>1.00494372565557</v>
+        <v>1.007771830792726</v>
       </c>
       <c r="E3">
-        <v>0.9604149111062973</v>
+        <v>0.9616374954409622</v>
       </c>
       <c r="F3">
-        <v>0.9814251954948338</v>
+        <v>0.9841321298663104</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038520701655901</v>
+        <v>1.03995712136961</v>
       </c>
       <c r="J3">
-        <v>1.005353668889978</v>
+        <v>1.008808329906315</v>
       </c>
       <c r="K3">
-        <v>1.0155137389902</v>
+        <v>1.018306226085119</v>
       </c>
       <c r="L3">
-        <v>0.971580664073153</v>
+        <v>0.9727859611745516</v>
       </c>
       <c r="M3">
-        <v>0.992301393953687</v>
+        <v>0.9949721515861482</v>
+      </c>
+      <c r="N3">
+        <v>1.010240953446714</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9916121638982276</v>
+        <v>0.9951433357244883</v>
       </c>
       <c r="D4">
-        <v>1.010625059144819</v>
+        <v>1.013436388453516</v>
       </c>
       <c r="E4">
-        <v>0.9666046525476022</v>
+        <v>0.9678076113054401</v>
       </c>
       <c r="F4">
-        <v>0.9887736128020125</v>
+        <v>0.9914553859740108</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041071063756722</v>
+        <v>1.042500172478545</v>
       </c>
       <c r="J4">
-        <v>1.011232892583875</v>
+        <v>1.014672096691581</v>
       </c>
       <c r="K4">
-        <v>1.020596918365806</v>
+        <v>1.023375308388424</v>
       </c>
       <c r="L4">
-        <v>0.9771235712399031</v>
+        <v>0.978310751971825</v>
       </c>
       <c r="M4">
-        <v>0.9990094458382147</v>
+        <v>1.001658042786857</v>
+      </c>
+      <c r="N4">
+        <v>1.016113047453399</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9945499422182651</v>
+        <v>0.9980718168259574</v>
       </c>
       <c r="D5">
-        <v>1.012948860183534</v>
+        <v>1.015753765984627</v>
       </c>
       <c r="E5">
-        <v>0.9691269248113897</v>
+        <v>0.9703223646411476</v>
       </c>
       <c r="F5">
-        <v>0.991774322556384</v>
+        <v>0.9944464273745212</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042109138404108</v>
+        <v>1.043535483389933</v>
       </c>
       <c r="J5">
-        <v>1.013634915428299</v>
+        <v>1.017068281991977</v>
       </c>
       <c r="K5">
-        <v>1.0226727304419</v>
+        <v>1.025445775084643</v>
       </c>
       <c r="L5">
-        <v>0.9793784473456888</v>
+        <v>0.9805587040412197</v>
       </c>
       <c r="M5">
-        <v>1.001745927520606</v>
+        <v>1.004386048606996</v>
+      </c>
+      <c r="N5">
+        <v>1.018512635611768</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9950386339818136</v>
+        <v>0.9985589940113373</v>
       </c>
       <c r="D6">
-        <v>1.013335420946406</v>
+        <v>1.016139282289058</v>
       </c>
       <c r="E6">
-        <v>0.9695459646571392</v>
+        <v>0.9707401815022177</v>
       </c>
       <c r="F6">
-        <v>0.9922732138985527</v>
+        <v>0.9949437445007782</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042281521849439</v>
+        <v>1.0437074195962</v>
       </c>
       <c r="J6">
-        <v>1.014034333242465</v>
+        <v>1.017466755373885</v>
       </c>
       <c r="K6">
-        <v>1.023017845663557</v>
+        <v>1.025790024249539</v>
       </c>
       <c r="L6">
-        <v>0.9797528407182379</v>
+        <v>0.9809319721920824</v>
       </c>
       <c r="M6">
-        <v>1.002200728780141</v>
+        <v>1.004839472151324</v>
+      </c>
+      <c r="N6">
+        <v>1.018911674871584</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9916517299009333</v>
+        <v>0.9951827743043542</v>
       </c>
       <c r="D7">
-        <v>1.010656355816816</v>
+        <v>1.013467596952827</v>
       </c>
       <c r="E7">
-        <v>0.9666386588726882</v>
+        <v>0.9678415144463212</v>
       </c>
       <c r="F7">
-        <v>0.9888140448036283</v>
+        <v>0.9914956854072575</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041085064597132</v>
+        <v>1.042514135235623</v>
       </c>
       <c r="J7">
-        <v>1.011265253311801</v>
+        <v>1.01470437696235</v>
       </c>
       <c r="K7">
-        <v>1.020624888243125</v>
+        <v>1.023403204678713</v>
       </c>
       <c r="L7">
-        <v>0.9771539874973753</v>
+        <v>0.9783410731403498</v>
       </c>
       <c r="M7">
-        <v>0.9990463284270544</v>
+        <v>1.001694808997557</v>
+      </c>
+      <c r="N7">
+        <v>1.016145373565856</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9767771671652283</v>
+        <v>0.9803605558251421</v>
       </c>
       <c r="D8">
-        <v>0.9988921939254092</v>
+        <v>1.001739916191388</v>
       </c>
       <c r="E8">
-        <v>0.9537858395020093</v>
+        <v>0.9550313760568298</v>
       </c>
       <c r="F8">
-        <v>0.9735781132901843</v>
+        <v>0.9763143518265546</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035786047183724</v>
+        <v>1.037231152934391</v>
       </c>
       <c r="J8">
-        <v>0.9990811521022958</v>
+        <v>1.002554211216706</v>
       </c>
       <c r="K8">
-        <v>1.010087192087854</v>
+        <v>1.012896370675814</v>
       </c>
       <c r="L8">
-        <v>0.9656304654830334</v>
+        <v>0.9668570137320862</v>
       </c>
       <c r="M8">
-        <v>0.9851282931691316</v>
+        <v>0.9878250151707282</v>
+      </c>
+      <c r="N8">
+        <v>1.003977953191209</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9471794425507222</v>
+        <v>0.9508971334228032</v>
       </c>
       <c r="D9">
-        <v>0.9755068486534079</v>
+        <v>0.9784497055257316</v>
       </c>
       <c r="E9">
-        <v>0.9278187273003597</v>
+        <v>0.9291761530702162</v>
       </c>
       <c r="F9">
-        <v>0.943039903253806</v>
+        <v>0.9459175176893696</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025068870789902</v>
+        <v>1.026557354166842</v>
       </c>
       <c r="J9">
-        <v>0.9747459611772133</v>
+        <v>0.9783115064730821</v>
       </c>
       <c r="K9">
-        <v>0.9890102165272388</v>
+        <v>0.9919023735952618</v>
       </c>
       <c r="L9">
-        <v>0.942202558385049</v>
+        <v>0.9435332815595274</v>
       </c>
       <c r="M9">
-        <v>0.9571300627952772</v>
+        <v>0.9599535444839973</v>
+      </c>
+      <c r="N9">
+        <v>0.979700821026172</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9242596843171625</v>
+        <v>0.928115995665304</v>
       </c>
       <c r="D10">
-        <v>0.9574348226339737</v>
+        <v>0.9604771716248619</v>
       </c>
       <c r="E10">
-        <v>0.9073595261000518</v>
+        <v>0.9088355878937139</v>
       </c>
       <c r="F10">
-        <v>0.9191724707728223</v>
+        <v>0.9221979019226981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01665413530356</v>
+        <v>1.01818916896551</v>
       </c>
       <c r="J10">
-        <v>0.955837692960541</v>
+        <v>0.9595034649885112</v>
       </c>
       <c r="K10">
-        <v>0.9726176206610514</v>
+        <v>0.9755986725934123</v>
       </c>
       <c r="L10">
-        <v>0.9236303831650665</v>
+        <v>0.925072076666667</v>
       </c>
       <c r="M10">
-        <v>0.9351724009153538</v>
+        <v>0.9381299313725873</v>
+      </c>
+      <c r="N10">
+        <v>0.9608660699653806</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9132716535091545</v>
+        <v>0.9172080981767128</v>
       </c>
       <c r="D11">
-        <v>0.9487860738848094</v>
+        <v>0.9518863228993378</v>
       </c>
       <c r="E11">
-        <v>0.8974405377020577</v>
+        <v>0.8989865093849447</v>
       </c>
       <c r="F11">
-        <v>0.9076551365508517</v>
+        <v>0.9107668539686576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012593839192745</v>
+        <v>1.014156268824141</v>
       </c>
       <c r="J11">
-        <v>0.9467572744082778</v>
+        <v>0.9504824016164128</v>
       </c>
       <c r="K11">
-        <v>0.9647430560947212</v>
+        <v>0.9677764461096242</v>
       </c>
       <c r="L11">
-        <v>0.9145956336918162</v>
+        <v>0.9161028334283944</v>
       </c>
       <c r="M11">
-        <v>0.9245573470037874</v>
+        <v>0.9275935410351145</v>
+      </c>
+      <c r="N11">
+        <v>0.9518321956485635</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.908991658865103</v>
+        <v>0.9129621433042742</v>
       </c>
       <c r="D12">
-        <v>0.9454202666209602</v>
+        <v>0.9485451792091354</v>
       </c>
       <c r="E12">
-        <v>0.8935569706454178</v>
+        <v>0.8951329188556448</v>
       </c>
       <c r="F12">
-        <v>0.9031548579828433</v>
+        <v>0.9063034073563299</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011008527160884</v>
+        <v>1.012582675348524</v>
       </c>
       <c r="J12">
-        <v>0.9432179209869331</v>
+        <v>0.9469685067641911</v>
       </c>
       <c r="K12">
-        <v>0.9616735549854599</v>
+        <v>0.96472934156533</v>
       </c>
       <c r="L12">
-        <v>0.9110532784963826</v>
+        <v>0.9125885819153465</v>
       </c>
       <c r="M12">
-        <v>0.920406595815682</v>
+        <v>0.9234764356830086</v>
+      </c>
+      <c r="N12">
+        <v>0.948313310662602</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9099195062738491</v>
+        <v>0.913882467623079</v>
       </c>
       <c r="D13">
-        <v>0.9461497816273627</v>
+        <v>0.9492692401074131</v>
       </c>
       <c r="E13">
-        <v>0.8943998429366107</v>
+        <v>0.8959691520099101</v>
       </c>
       <c r="F13">
-        <v>0.9041311514103976</v>
+        <v>0.9072715515888368</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011352368580401</v>
+        <v>1.012923923107791</v>
       </c>
       <c r="J13">
-        <v>0.9439853164008276</v>
+        <v>0.9477302641204219</v>
       </c>
       <c r="K13">
-        <v>0.9623390820072768</v>
+        <v>0.9653899110640565</v>
       </c>
       <c r="L13">
-        <v>0.9118223271626729</v>
+        <v>0.9133514055943603</v>
       </c>
       <c r="M13">
-        <v>0.9213072009039845</v>
+        <v>0.9243695934182152</v>
+      </c>
+      <c r="N13">
+        <v>0.9490761498016536</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9129221964191835</v>
+        <v>0.9168613578324112</v>
       </c>
       <c r="D14">
-        <v>0.9485111941851492</v>
+        <v>0.9516134102173184</v>
       </c>
       <c r="E14">
-        <v>0.8971238733475571</v>
+        <v>0.8986722314605349</v>
       </c>
       <c r="F14">
-        <v>0.9072879969207958</v>
+        <v>0.9104026500739943</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01246447473298</v>
+        <v>1.014027837996491</v>
       </c>
       <c r="J14">
-        <v>0.9464683386480416</v>
+        <v>0.9501954927323149</v>
       </c>
       <c r="K14">
-        <v>0.9644924789316515</v>
+        <v>0.9675276530961489</v>
       </c>
       <c r="L14">
-        <v>0.9143068942703567</v>
+        <v>0.9158163310534251</v>
       </c>
       <c r="M14">
-        <v>0.9242187839390356</v>
+        <v>0.9272576583998472</v>
+      </c>
+      <c r="N14">
+        <v>0.9515448793209412</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9147445305340109</v>
+        <v>0.9186696437599364</v>
       </c>
       <c r="D15">
-        <v>0.9499447505313541</v>
+        <v>0.9530367979035023</v>
       </c>
       <c r="E15">
-        <v>0.8987743762930602</v>
+        <v>0.9003104056338879</v>
       </c>
       <c r="F15">
-        <v>0.909201955239869</v>
+        <v>0.912301435085681</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.013138928831953</v>
+        <v>1.014697467510364</v>
       </c>
       <c r="J15">
-        <v>0.9479749718023776</v>
+        <v>0.9516916546854696</v>
       </c>
       <c r="K15">
-        <v>0.9657990887297798</v>
+        <v>0.9688250436092023</v>
       </c>
       <c r="L15">
-        <v>0.9158116456500813</v>
+        <v>0.9173095259877208</v>
       </c>
       <c r="M15">
-        <v>0.9259836457284235</v>
+        <v>0.9290086690753233</v>
+      </c>
+      <c r="N15">
+        <v>0.9530431659956813</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9249635233077715</v>
+        <v>0.928815032662661</v>
       </c>
       <c r="D16">
-        <v>0.9579891803347196</v>
+        <v>0.9610280675195093</v>
       </c>
       <c r="E16">
-        <v>0.9079924089066389</v>
+        <v>0.9094643113769818</v>
       </c>
       <c r="F16">
-        <v>0.919908491890999</v>
+        <v>0.9229287714122826</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016913702905621</v>
+        <v>1.018447104433091</v>
       </c>
       <c r="J16">
-        <v>0.9564190219637191</v>
+        <v>0.9600812656815834</v>
       </c>
       <c r="K16">
-        <v>0.9731217186616473</v>
+        <v>0.9760996533302827</v>
       </c>
       <c r="L16">
-        <v>0.9242062028417442</v>
+        <v>0.9256440010009045</v>
       </c>
       <c r="M16">
-        <v>0.9358503634613464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9388032054381801</v>
+      </c>
+      <c r="N16">
+        <v>0.9614446912017116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9310656540919434</v>
+        <v>0.9348770756685293</v>
       </c>
       <c r="D17">
-        <v>0.962797066618125</v>
+        <v>0.9658070927330921</v>
       </c>
       <c r="E17">
-        <v>0.913467028996966</v>
+        <v>0.9149043447598348</v>
       </c>
       <c r="F17">
-        <v>0.9262812264522705</v>
+        <v>0.9292585851909445</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.019161256861774</v>
+        <v>1.020681081436966</v>
       </c>
       <c r="J17">
-        <v>0.9614573178749897</v>
+        <v>0.9650902485157432</v>
       </c>
       <c r="K17">
-        <v>0.9774904335962604</v>
+        <v>0.9804424398486752</v>
       </c>
       <c r="L17">
-        <v>0.9291838530959246</v>
+        <v>0.9305892706220731</v>
       </c>
       <c r="M17">
-        <v>0.9417182956374089</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.944632116507973</v>
+      </c>
+      <c r="N17">
+        <v>0.9664607873660346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.934525499406994</v>
+        <v>0.9383153699322815</v>
       </c>
       <c r="D18">
-        <v>0.965524415440092</v>
+        <v>0.968518956363641</v>
       </c>
       <c r="E18">
-        <v>0.9165613187394847</v>
+        <v>0.9179801426520643</v>
       </c>
       <c r="F18">
-        <v>0.9298879242746855</v>
+        <v>0.9328422729185691</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020433215544211</v>
+        <v>1.021945779865508</v>
       </c>
       <c r="J18">
-        <v>0.9643125769701183</v>
+        <v>0.9679298611422773</v>
       </c>
       <c r="K18">
-        <v>0.9799660163915405</v>
+        <v>0.9829041588339231</v>
       </c>
       <c r="L18">
-        <v>0.9319945253534959</v>
+        <v>0.9333826396676728</v>
       </c>
       <c r="M18">
-        <v>0.9450375657599995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.947930500022545</v>
+      </c>
+      <c r="N18">
+        <v>0.9693044325682062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9356893127980835</v>
+        <v>0.9394721173388354</v>
       </c>
       <c r="D19">
-        <v>0.9664420410938327</v>
+        <v>0.9694315098255645</v>
       </c>
       <c r="E19">
-        <v>0.9176005887549784</v>
+        <v>0.9190133654566064</v>
       </c>
       <c r="F19">
-        <v>0.9311000854040977</v>
+        <v>0.9340468995199762</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020860665400583</v>
+        <v>1.02237085569965</v>
       </c>
       <c r="J19">
-        <v>0.9652727844326086</v>
+        <v>0.9688849569371539</v>
       </c>
       <c r="K19">
-        <v>0.9807984996910258</v>
+        <v>0.9837321089220579</v>
       </c>
       <c r="L19">
-        <v>0.9329380843604897</v>
+        <v>0.9343205417582825</v>
       </c>
       <c r="M19">
-        <v>0.9461528360339472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9490389365534043</v>
+      </c>
+      <c r="N19">
+        <v>0.9702608847086629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9304214728183617</v>
+        <v>0.9342369989580476</v>
       </c>
       <c r="D20">
-        <v>0.9622893712797028</v>
+        <v>0.9653023491669387</v>
       </c>
       <c r="E20">
-        <v>0.9128901320086827</v>
+        <v>0.9143309778250567</v>
       </c>
       <c r="F20">
-        <v>0.9256091824509063</v>
+        <v>0.9285909287367473</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018924238148883</v>
+        <v>1.020445448696308</v>
       </c>
       <c r="J20">
-        <v>0.9609255890061821</v>
+        <v>0.9645615088651617</v>
       </c>
       <c r="K20">
-        <v>0.977029392239948</v>
+        <v>0.9799840451560407</v>
       </c>
       <c r="L20">
-        <v>0.9286596128951583</v>
+        <v>0.9300683343438422</v>
       </c>
       <c r="M20">
-        <v>0.9410996680488406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9440174742889071</v>
+      </c>
+      <c r="N20">
+        <v>0.9659312968445019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9120438468802915</v>
+        <v>0.9159898851642402</v>
       </c>
       <c r="D21">
-        <v>0.9478203432836133</v>
+        <v>0.9509275395151709</v>
       </c>
       <c r="E21">
-        <v>0.896327614897696</v>
+        <v>0.8978820184488276</v>
       </c>
       <c r="F21">
-        <v>0.9063649661371943</v>
+        <v>0.9094870534894839</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.012139261662958</v>
+        <v>1.013704989516919</v>
       </c>
       <c r="J21">
-        <v>0.945742068976501</v>
+        <v>0.9494743576217525</v>
       </c>
       <c r="K21">
-        <v>0.9638626255941963</v>
+        <v>0.9669023185996773</v>
       </c>
       <c r="L21">
-        <v>0.9135807725202144</v>
+        <v>0.915095876546794</v>
       </c>
       <c r="M21">
-        <v>0.9233675491105658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9264132123311439</v>
+      </c>
+      <c r="N21">
+        <v>0.9508227201158063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8993082756901163</v>
+        <v>0.9033623578837068</v>
       </c>
       <c r="D22">
-        <v>0.9378118267233914</v>
+        <v>0.9409974611347212</v>
       </c>
       <c r="E22">
-        <v>0.8847279858113677</v>
+        <v>0.8863782346400587</v>
       </c>
       <c r="F22">
-        <v>0.8929423463137225</v>
+        <v>0.8961817883710307</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007414958490479</v>
+        <v>1.009018057840061</v>
       </c>
       <c r="J22">
-        <v>0.9352055990370033</v>
+        <v>0.9390192370516659</v>
       </c>
       <c r="K22">
-        <v>0.9547248143535398</v>
+        <v>0.9578359584035419</v>
       </c>
       <c r="L22">
-        <v>0.9029900917907192</v>
+        <v>0.9045950809649821</v>
       </c>
       <c r="M22">
-        <v>0.9109814158920296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9141344264478897</v>
+      </c>
+      <c r="N22">
+        <v>0.9403527520752913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9061889438103531</v>
+        <v>0.9101826527816967</v>
       </c>
       <c r="D23">
-        <v>0.9432171546461546</v>
+        <v>0.9463589157840162</v>
       </c>
       <c r="E23">
-        <v>0.8910076650463052</v>
+        <v>0.8926041587373437</v>
       </c>
       <c r="F23">
-        <v>0.9002034451637067</v>
+        <v>0.9033771838699065</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009969359363975</v>
+        <v>1.011551527231654</v>
       </c>
       <c r="J23">
-        <v>0.9408995168855947</v>
+        <v>0.944667547228756</v>
       </c>
       <c r="K23">
-        <v>0.959662901329651</v>
+        <v>0.9627340185895039</v>
       </c>
       <c r="L23">
-        <v>0.9087264861135856</v>
+        <v>0.9102810554641447</v>
       </c>
       <c r="M23">
-        <v>0.9176835385866887</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9207764088675205</v>
+      </c>
+      <c r="N23">
+        <v>0.9460090835007029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9307128551158494</v>
+        <v>0.9345265210052649</v>
       </c>
       <c r="D24">
-        <v>0.9625190128409269</v>
+        <v>0.9655306528435426</v>
       </c>
       <c r="E24">
-        <v>0.913151109932244</v>
+        <v>0.9145903555538931</v>
       </c>
       <c r="F24">
-        <v>0.9259131882618646</v>
+        <v>0.9288929458433459</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.019031456200109</v>
+        <v>1.020552038480748</v>
       </c>
       <c r="J24">
-        <v>0.9611661101278772</v>
+        <v>0.9648006748712766</v>
       </c>
       <c r="K24">
-        <v>0.977237939411809</v>
+        <v>0.9801913925805874</v>
       </c>
       <c r="L24">
-        <v>0.9288967783371993</v>
+        <v>0.9303040020682731</v>
       </c>
       <c r="M24">
-        <v>0.9413795158196424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9442955155420466</v>
+      </c>
+      <c r="N24">
+        <v>0.9661708024937782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9553118300617499</v>
+        <v>0.9589881504644698</v>
       </c>
       <c r="D25">
-        <v>0.9819278829069954</v>
+        <v>0.9848412648525526</v>
       </c>
       <c r="E25">
-        <v>0.9350044994049934</v>
+        <v>0.9363271198995323</v>
       </c>
       <c r="F25">
-        <v>0.9514611709937181</v>
+        <v>0.9542950393194199</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028032838677279</v>
+        <v>1.029507720203211</v>
       </c>
       <c r="J25">
-        <v>0.9814427533519394</v>
+        <v>0.984979192378805</v>
       </c>
       <c r="K25">
-        <v>0.9948133770096836</v>
+        <v>0.997679548819417</v>
       </c>
       <c r="L25">
-        <v>0.9487031905166853</v>
+        <v>0.9500014351674755</v>
       </c>
       <c r="M25">
-        <v>0.9648628216032711</v>
+        <v>0.96764687856012</v>
+      </c>
+      <c r="N25">
+        <v>0.9863779758106755</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9763431753630142</v>
+        <v>1.001451887781485</v>
       </c>
       <c r="D2">
-        <v>0.9985621203759416</v>
+        <v>1.020237418239074</v>
       </c>
       <c r="E2">
-        <v>0.951536229761646</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9721871975201641</v>
+        <v>1.020584559994854</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035788081385562</v>
+        <v>1.041872294322856</v>
       </c>
       <c r="J2">
-        <v>0.999255238803476</v>
+        <v>1.02358925968609</v>
       </c>
       <c r="K2">
-        <v>1.01004152356008</v>
+        <v>1.031421833422733</v>
       </c>
       <c r="L2">
-        <v>0.9637147433107123</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9840481067649062</v>
+        <v>1.031764378709726</v>
       </c>
       <c r="N2">
-        <v>1.000674295858755</v>
+        <v>1.025042873842174</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9879846678935231</v>
+        <v>1.011809245814502</v>
       </c>
       <c r="D3">
-        <v>1.007771830792726</v>
+        <v>1.028461070713769</v>
       </c>
       <c r="E3">
-        <v>0.9616374954409622</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9841321298663104</v>
+        <v>1.029872653501319</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03995712136961</v>
+        <v>1.044969775629994</v>
       </c>
       <c r="J3">
-        <v>1.008808329906315</v>
+        <v>1.031983075184141</v>
       </c>
       <c r="K3">
-        <v>1.018306226085119</v>
+        <v>1.038742290963395</v>
       </c>
       <c r="L3">
-        <v>0.9727859611745516</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9949721515861482</v>
+        <v>1.040137059733374</v>
       </c>
       <c r="N3">
-        <v>1.010240953446714</v>
+        <v>1.033448609521015</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9951433357244883</v>
+        <v>1.018241935772078</v>
       </c>
       <c r="D4">
-        <v>1.013436388453516</v>
+        <v>1.033570789509765</v>
       </c>
       <c r="E4">
-        <v>0.9678076113054401</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9914553859740108</v>
+        <v>1.035648789684999</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042500172478545</v>
+        <v>1.046877944555044</v>
       </c>
       <c r="J4">
-        <v>1.014672096691581</v>
+        <v>1.037190248012039</v>
       </c>
       <c r="K4">
-        <v>1.023375308388424</v>
+        <v>1.043280248821683</v>
       </c>
       <c r="L4">
-        <v>0.978310751971825</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.001658042786857</v>
+        <v>1.045335191878632</v>
       </c>
       <c r="N4">
-        <v>1.016113047453399</v>
+        <v>1.0386631771316</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9980718168259574</v>
+        <v>1.020886684278994</v>
       </c>
       <c r="D5">
-        <v>1.015753765984627</v>
+        <v>1.035671951506696</v>
       </c>
       <c r="E5">
-        <v>0.9703223646411476</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>0.9944464273745212</v>
+        <v>1.038025232344077</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043535483389933</v>
+        <v>1.047658628738142</v>
       </c>
       <c r="J5">
-        <v>1.017068281991977</v>
+        <v>1.039329593787138</v>
       </c>
       <c r="K5">
-        <v>1.025445775084643</v>
+        <v>1.045143798179337</v>
       </c>
       <c r="L5">
-        <v>0.9805587040412197</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.004386048606996</v>
+        <v>1.047471751475264</v>
       </c>
       <c r="N5">
-        <v>1.018512635611768</v>
+        <v>1.040805561023086</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9985589940113373</v>
+        <v>1.021327388345406</v>
       </c>
       <c r="D6">
-        <v>1.016139282289058</v>
+        <v>1.036022090760012</v>
       </c>
       <c r="E6">
-        <v>0.9707401815022177</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>0.9949437445007782</v>
+        <v>1.038421318780381</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0437074195962</v>
+        <v>1.04778848798405</v>
       </c>
       <c r="J6">
-        <v>1.017466755373885</v>
+        <v>1.039685987369764</v>
       </c>
       <c r="K6">
-        <v>1.025790024249539</v>
+        <v>1.045454195351042</v>
       </c>
       <c r="L6">
-        <v>0.9809319721920824</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.004839472151324</v>
+        <v>1.047827734223281</v>
       </c>
       <c r="N6">
-        <v>1.018911674871584</v>
+        <v>1.041162460725479</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9951827743043542</v>
+        <v>1.018277503005953</v>
       </c>
       <c r="D7">
-        <v>1.013467596952827</v>
+        <v>1.033599045336597</v>
       </c>
       <c r="E7">
-        <v>0.9678415144463212</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.9914956854072575</v>
+        <v>1.035680742427863</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042514135235623</v>
+        <v>1.046888458765445</v>
       </c>
       <c r="J7">
-        <v>1.01470437696235</v>
+        <v>1.037219024701812</v>
       </c>
       <c r="K7">
-        <v>1.023403204678713</v>
+        <v>1.043305319171399</v>
       </c>
       <c r="L7">
-        <v>0.9783410731403498</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.001694808997557</v>
+        <v>1.045363927468555</v>
       </c>
       <c r="N7">
-        <v>1.016145373565856</v>
+        <v>1.038691994687573</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9803605558251421</v>
+        <v>1.005011092178565</v>
       </c>
       <c r="D8">
-        <v>1.001739916191388</v>
+        <v>1.023062799233963</v>
       </c>
       <c r="E8">
-        <v>0.9550313760568298</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9763143518265546</v>
+        <v>1.023774602013347</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037231152934391</v>
+        <v>1.042939963853378</v>
       </c>
       <c r="J8">
-        <v>1.002554211216706</v>
+        <v>1.026474925227285</v>
       </c>
       <c r="K8">
-        <v>1.012896370675814</v>
+        <v>1.033939175695437</v>
       </c>
       <c r="L8">
-        <v>0.9668570137320862</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9878250151707282</v>
+        <v>1.034641880377754</v>
       </c>
       <c r="N8">
-        <v>1.003977953191209</v>
+        <v>1.027932637359427</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9508971334228032</v>
+        <v>0.9793142747942836</v>
       </c>
       <c r="D9">
-        <v>0.9784497055257316</v>
+        <v>1.002683348374761</v>
       </c>
       <c r="E9">
-        <v>0.9291761530702162</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9459175176893696</v>
+        <v>1.000785375081578</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026557354166842</v>
+        <v>1.035167469792578</v>
       </c>
       <c r="J9">
-        <v>0.9783115064730821</v>
+        <v>1.005619257986256</v>
       </c>
       <c r="K9">
-        <v>0.9919023735952618</v>
+        <v>1.015733039628949</v>
       </c>
       <c r="L9">
-        <v>0.9435332815595274</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9599535444839973</v>
+        <v>1.01386572296149</v>
       </c>
       <c r="N9">
-        <v>0.979700821026172</v>
+        <v>1.007047352678737</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.928115995665304</v>
+        <v>0.9601857566162582</v>
       </c>
       <c r="D10">
-        <v>0.9604771716248619</v>
+        <v>0.9875513207349462</v>
       </c>
       <c r="E10">
-        <v>0.9088355878937139</v>
+        <v>0.9361465105547164</v>
       </c>
       <c r="F10">
-        <v>0.9221979019226981</v>
+        <v>0.9837398798647087</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01818916896551</v>
+        <v>1.029305087366229</v>
       </c>
       <c r="J10">
-        <v>0.9595034649885112</v>
+        <v>0.9900731962674021</v>
       </c>
       <c r="K10">
-        <v>0.9755986725934123</v>
+        <v>1.002149037367136</v>
       </c>
       <c r="L10">
-        <v>0.925072076666667</v>
+        <v>0.9517730114689266</v>
       </c>
       <c r="M10">
-        <v>0.9381299313725873</v>
+        <v>0.9984090558440082</v>
       </c>
       <c r="N10">
-        <v>0.9608660699653806</v>
+        <v>0.9914792137690847</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9172080981767128</v>
+        <v>0.951301044968922</v>
       </c>
       <c r="D11">
-        <v>0.9518863228993378</v>
+        <v>0.9805372295188419</v>
       </c>
       <c r="E11">
-        <v>0.8989865093849447</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9107668539686576</v>
+        <v>0.9758437681115461</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014156268824141</v>
+        <v>1.026566477550586</v>
       </c>
       <c r="J11">
-        <v>0.9504824016164128</v>
+        <v>0.9828501116002332</v>
       </c>
       <c r="K11">
-        <v>0.9677764461096242</v>
+        <v>0.9958357617698895</v>
       </c>
       <c r="L11">
-        <v>0.9161028334283944</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>0.9275935410351145</v>
+        <v>0.9912360810135979</v>
       </c>
       <c r="N11">
-        <v>0.9518321956485635</v>
+        <v>0.9842458714931887</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9129621433042742</v>
+        <v>0.9478964234325699</v>
       </c>
       <c r="D12">
-        <v>0.9485451792091354</v>
+        <v>0.9778521412785093</v>
       </c>
       <c r="E12">
-        <v>0.8951329188556448</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9063034073563299</v>
+        <v>0.9728216791893405</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012582675348524</v>
+        <v>1.025514957177918</v>
       </c>
       <c r="J12">
-        <v>0.9469685067641911</v>
+        <v>0.9800821683062264</v>
       </c>
       <c r="K12">
-        <v>0.96472934156533</v>
+        <v>0.9934163264289663</v>
       </c>
       <c r="L12">
-        <v>0.9125885819153465</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>0.9234764356830086</v>
+        <v>0.9884887774542636</v>
       </c>
       <c r="N12">
-        <v>0.948313310662602</v>
+        <v>0.9814739974022172</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.913882467623079</v>
+        <v>0.9486317132155291</v>
       </c>
       <c r="D13">
-        <v>0.9492692401074131</v>
+        <v>0.9784319025668415</v>
       </c>
       <c r="E13">
-        <v>0.8959691520099101</v>
+        <v>0.9318723593368228</v>
       </c>
       <c r="F13">
-        <v>0.9072715515888368</v>
+        <v>0.9734741777102754</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012923923107791</v>
+        <v>1.025742141076289</v>
       </c>
       <c r="J13">
-        <v>0.9477302641204219</v>
+        <v>0.9806799530834514</v>
       </c>
       <c r="K13">
-        <v>0.9653899110640565</v>
+        <v>0.9939388487248869</v>
       </c>
       <c r="L13">
-        <v>0.9133514055943603</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>0.9243695934182152</v>
+        <v>0.9890820372787442</v>
       </c>
       <c r="N13">
-        <v>0.9490761498016536</v>
+        <v>0.9820726311023927</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9168613578324112</v>
+        <v>0.9510218411452003</v>
       </c>
       <c r="D14">
-        <v>0.9516134102173184</v>
+        <v>0.9803169743508475</v>
       </c>
       <c r="E14">
-        <v>0.8986722314605349</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9104026500739943</v>
+        <v>0.9755958565848565</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014027837996491</v>
+        <v>1.026480285564607</v>
       </c>
       <c r="J14">
-        <v>0.9501954927323149</v>
+        <v>0.9826231192967481</v>
       </c>
       <c r="K14">
-        <v>0.9675276530961489</v>
+        <v>0.9956373516819275</v>
       </c>
       <c r="L14">
-        <v>0.9158163310534251</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9272576583998472</v>
+        <v>0.9910107513421653</v>
       </c>
       <c r="N14">
-        <v>0.9515448793209412</v>
+        <v>0.9840185568345968</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9186696437599364</v>
+        <v>0.952480164052217</v>
       </c>
       <c r="D15">
-        <v>0.9530367979035023</v>
+        <v>0.9814675128974228</v>
       </c>
       <c r="E15">
-        <v>0.9003104056338879</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.912301435085681</v>
+        <v>0.976890888254441</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.014697467510364</v>
+        <v>1.026930396509619</v>
       </c>
       <c r="J15">
-        <v>0.9516916546854696</v>
+        <v>0.9838087332842721</v>
       </c>
       <c r="K15">
-        <v>0.9688250436092023</v>
+        <v>0.9966736718582412</v>
       </c>
       <c r="L15">
-        <v>0.9173095259877208</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9290086690753233</v>
+        <v>0.9921877402254243</v>
       </c>
       <c r="N15">
-        <v>0.9530431659956813</v>
+        <v>0.9852058545299747</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.928815032662661</v>
+        <v>0.9607615982115724</v>
       </c>
       <c r="D16">
-        <v>0.9610280675195093</v>
+        <v>0.9880062598612966</v>
       </c>
       <c r="E16">
-        <v>0.9094643113769818</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9229287714122826</v>
+        <v>0.9842521211054697</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018447104433091</v>
+        <v>1.029482284377423</v>
       </c>
       <c r="J16">
-        <v>0.9600812656815834</v>
+        <v>0.990541318724231</v>
       </c>
       <c r="K16">
-        <v>0.9760996533302827</v>
+        <v>1.002558169299413</v>
       </c>
       <c r="L16">
-        <v>0.9256440010009045</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9388032054381801</v>
+        <v>0.9988741178838791</v>
       </c>
       <c r="N16">
-        <v>0.9614446912017116</v>
+        <v>0.991948001013497</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9348770756685293</v>
+        <v>0.9657862191078072</v>
       </c>
       <c r="D17">
-        <v>0.9658070927330921</v>
+        <v>0.99197757230783</v>
       </c>
       <c r="E17">
-        <v>0.9149043447598348</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9292585851909445</v>
+        <v>0.9887241814082096</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020681081436966</v>
+        <v>1.03102673492589</v>
       </c>
       <c r="J17">
-        <v>0.9650902485157432</v>
+        <v>0.9946257835495872</v>
       </c>
       <c r="K17">
-        <v>0.9804424398486752</v>
+        <v>1.006127741248457</v>
       </c>
       <c r="L17">
-        <v>0.9305892706220731</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.944632116507973</v>
+        <v>1.002932847923269</v>
       </c>
       <c r="N17">
-        <v>0.9664607873660346</v>
+        <v>0.9960382662473992</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9383153699322815</v>
+        <v>0.968660009738595</v>
       </c>
       <c r="D18">
-        <v>0.968518956363641</v>
+        <v>0.9942502185732132</v>
       </c>
       <c r="E18">
-        <v>0.9179801426520643</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9328422729185691</v>
+        <v>0.9912838506273606</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021945779865508</v>
+        <v>1.031908601549622</v>
       </c>
       <c r="J18">
-        <v>0.9679298611422773</v>
+        <v>0.9969616226925742</v>
       </c>
       <c r="K18">
-        <v>0.9829041588339231</v>
+        <v>1.008168944347145</v>
       </c>
       <c r="L18">
-        <v>0.9333826396676728</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.947930500022545</v>
+        <v>1.005254751608644</v>
       </c>
       <c r="N18">
-        <v>0.9693044325682062</v>
+        <v>0.9983774225498939</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9394721173388354</v>
+        <v>0.9696306084423729</v>
       </c>
       <c r="D19">
-        <v>0.9694315098255645</v>
+        <v>0.9950179896323625</v>
       </c>
       <c r="E19">
-        <v>0.9190133654566064</v>
+        <v>0.9397594814680091</v>
       </c>
       <c r="F19">
-        <v>0.9340468995199762</v>
+        <v>0.9921486678043723</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02237085569965</v>
+        <v>1.032206188303436</v>
       </c>
       <c r="J19">
-        <v>0.9688849569371539</v>
+        <v>0.9977504849967448</v>
       </c>
       <c r="K19">
-        <v>0.9837321089220579</v>
+        <v>1.008858268272934</v>
       </c>
       <c r="L19">
-        <v>0.9343205417582825</v>
+        <v>0.9546352493812711</v>
       </c>
       <c r="M19">
-        <v>0.9490389365534043</v>
+        <v>1.006039036375926</v>
       </c>
       <c r="N19">
-        <v>0.9702608847086629</v>
+        <v>0.9991674051290205</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9342369989580476</v>
+        <v>0.9652531104592175</v>
       </c>
       <c r="D20">
-        <v>0.9653023491669387</v>
+        <v>0.9915560812960673</v>
       </c>
       <c r="E20">
-        <v>0.9143309778250567</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9285909287367473</v>
+        <v>0.9882494964945951</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020445448696308</v>
+        <v>1.03086302121715</v>
       </c>
       <c r="J20">
-        <v>0.9645615088651617</v>
+        <v>0.9941924476164616</v>
       </c>
       <c r="K20">
-        <v>0.9799840451560407</v>
+        <v>1.005749049808255</v>
       </c>
       <c r="L20">
-        <v>0.9300683343438422</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9440174742889071</v>
+        <v>1.002502159859635</v>
       </c>
       <c r="N20">
-        <v>0.9659312968445019</v>
+        <v>0.9956043149275445</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9159898851642402</v>
+        <v>0.9503210200030882</v>
       </c>
       <c r="D21">
-        <v>0.9509275395151709</v>
+        <v>0.9797641640018911</v>
       </c>
       <c r="E21">
-        <v>0.8978820184488276</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9094870534894839</v>
+        <v>0.9749736426180061</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013704989516919</v>
+        <v>1.026263905242667</v>
       </c>
       <c r="J21">
-        <v>0.9494743576217525</v>
+        <v>0.9820533529138127</v>
       </c>
       <c r="K21">
-        <v>0.9669023185996773</v>
+        <v>0.9951393269266062</v>
       </c>
       <c r="L21">
-        <v>0.915095876546794</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9264132123311439</v>
+        <v>0.9904451818753003</v>
       </c>
       <c r="N21">
-        <v>0.9508227201158063</v>
+        <v>0.9834479813180445</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9033623578837068</v>
+        <v>0.9403188053981106</v>
       </c>
       <c r="D22">
-        <v>0.9409974611347212</v>
+        <v>0.9718817361540165</v>
       </c>
       <c r="E22">
-        <v>0.8863782346400587</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8961817883710307</v>
+        <v>0.9661030249917373</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009018057840061</v>
+        <v>1.023171086468622</v>
       </c>
       <c r="J22">
-        <v>0.9390192370516659</v>
+        <v>0.9739218761807269</v>
       </c>
       <c r="K22">
-        <v>0.9578359584035419</v>
+        <v>0.9880315871345993</v>
       </c>
       <c r="L22">
-        <v>0.9045950809649821</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.9141344264478897</v>
+        <v>0.9823772831312567</v>
       </c>
       <c r="N22">
-        <v>0.9403527520752913</v>
+        <v>0.9753049569553041</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9101826527816967</v>
+        <v>0.9456849380519371</v>
       </c>
       <c r="D23">
-        <v>0.9463589157840162</v>
+        <v>0.9761088763446917</v>
       </c>
       <c r="E23">
-        <v>0.8926041587373437</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9033771838699065</v>
+        <v>0.9708597902152248</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011551527231654</v>
+        <v>1.024831388539667</v>
       </c>
       <c r="J23">
-        <v>0.944667547228756</v>
+        <v>0.9782842660783451</v>
       </c>
       <c r="K23">
-        <v>0.9627340185895039</v>
+        <v>0.9918447759100941</v>
       </c>
       <c r="L23">
-        <v>0.9102810554641447</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9207764088675205</v>
+        <v>0.9867047085675903</v>
       </c>
       <c r="N23">
-        <v>0.9460090835007029</v>
+        <v>0.9796735419469498</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9345265210052649</v>
+        <v>0.9654941743859501</v>
       </c>
       <c r="D24">
-        <v>0.9655306528435426</v>
+        <v>0.9917466693917848</v>
       </c>
       <c r="E24">
-        <v>0.9145903555538931</v>
+        <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9288929458433459</v>
+        <v>0.988464136147157</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020552038480748</v>
+        <v>1.030937054756485</v>
       </c>
       <c r="J24">
-        <v>0.9648006748712766</v>
+        <v>0.9943883965409296</v>
       </c>
       <c r="K24">
-        <v>0.9801913925805874</v>
+        <v>1.005920289758814</v>
       </c>
       <c r="L24">
-        <v>0.9303040020682731</v>
+        <v>0.953371659644245</v>
       </c>
       <c r="M24">
-        <v>0.9442955155420466</v>
+        <v>1.002696909026103</v>
       </c>
       <c r="N24">
-        <v>0.9661708024937782</v>
+        <v>0.995800542121961</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9589881504644698</v>
+        <v>0.986272685346127</v>
       </c>
       <c r="D25">
-        <v>0.9848412648525526</v>
+        <v>1.008196916866283</v>
       </c>
       <c r="E25">
-        <v>0.9363271198995323</v>
+        <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>0.9542950393194199</v>
+        <v>1.007000699662048</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029507720203211</v>
+        <v>1.037285658932686</v>
       </c>
       <c r="J25">
-        <v>0.984979192378805</v>
+        <v>1.011271027439114</v>
       </c>
       <c r="K25">
-        <v>0.997679548819417</v>
+        <v>1.020669305075303</v>
       </c>
       <c r="L25">
-        <v>0.9500014351674755</v>
+        <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>0.96764687856012</v>
+        <v>1.019491302229718</v>
       </c>
       <c r="N25">
-        <v>0.9863779758106755</v>
+        <v>1.012707148292486</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001451887781485</v>
+        <v>0.9724006795682822</v>
       </c>
       <c r="D2">
-        <v>1.020237418239074</v>
+        <v>0.9963426090036244</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.020584559994854</v>
+        <v>0.9477288081139721</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041872294322856</v>
+        <v>1.033197258712967</v>
       </c>
       <c r="J2">
-        <v>1.02358925968609</v>
+        <v>0.9954394274323697</v>
       </c>
       <c r="K2">
-        <v>1.031421833422733</v>
+        <v>1.007853133360442</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.031764378709726</v>
+        <v>0.9599678153021707</v>
       </c>
       <c r="N2">
-        <v>1.025042873842174</v>
+        <v>1.002205171460986</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011809245814502</v>
+        <v>0.978720269036074</v>
       </c>
       <c r="D3">
-        <v>1.028461070713769</v>
+        <v>1.000735642855991</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.029872653501319</v>
+        <v>0.9569750671947642</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044969775629994</v>
+        <v>1.034569104070771</v>
       </c>
       <c r="J3">
-        <v>1.031983075184141</v>
+        <v>0.9998083439120161</v>
       </c>
       <c r="K3">
-        <v>1.038742290963395</v>
+        <v>1.011359119640213</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.040137059733374</v>
+        <v>0.9681897591478537</v>
       </c>
       <c r="N3">
-        <v>1.033448609521015</v>
+        <v>1.003697623313823</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018241935772078</v>
+        <v>0.9826848554766343</v>
       </c>
       <c r="D4">
-        <v>1.033570789509765</v>
+        <v>1.003494118474316</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.035648789684999</v>
+        <v>0.9627611635282016</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046877944555044</v>
+        <v>1.035416431559249</v>
       </c>
       <c r="J4">
-        <v>1.037190248012039</v>
+        <v>1.002542100362846</v>
       </c>
       <c r="K4">
-        <v>1.043280248821683</v>
+        <v>1.013550554702353</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.045335191878632</v>
+        <v>0.973330825051278</v>
       </c>
       <c r="N4">
-        <v>1.0386631771316</v>
+        <v>1.004631003066224</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020886684278994</v>
+        <v>0.9843233842710293</v>
       </c>
       <c r="D5">
-        <v>1.035671951506696</v>
+        <v>1.004634664327085</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.038025232344077</v>
+        <v>0.965149601204406</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047658628738142</v>
+        <v>1.035763377170155</v>
       </c>
       <c r="J5">
-        <v>1.039329593787138</v>
+        <v>1.003670224885197</v>
       </c>
       <c r="K5">
-        <v>1.045143798179337</v>
+        <v>1.014454268182208</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.047471751475264</v>
+        <v>0.9754519777283529</v>
       </c>
       <c r="N5">
-        <v>1.040805561023086</v>
+        <v>1.005016045529892</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021327388345406</v>
+        <v>0.9845968930240977</v>
       </c>
       <c r="D6">
-        <v>1.036022090760012</v>
+        <v>1.004825073928187</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.038421318780381</v>
+        <v>0.9655481322395377</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04778848798405</v>
+        <v>1.035821097869764</v>
       </c>
       <c r="J6">
-        <v>1.039685987369764</v>
+        <v>1.003858434017968</v>
       </c>
       <c r="K6">
-        <v>1.045454195351042</v>
+        <v>1.014605000524882</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.047827734223281</v>
+        <v>0.9758058483053323</v>
       </c>
       <c r="N6">
-        <v>1.041162460725479</v>
+        <v>1.005080275543912</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018277503005953</v>
+        <v>0.9827068582474177</v>
       </c>
       <c r="D7">
-        <v>1.033599045336597</v>
+        <v>1.003509432339587</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.035680742427863</v>
+        <v>0.962793247127204</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046888458765445</v>
+        <v>1.035421103403121</v>
       </c>
       <c r="J7">
-        <v>1.037219024701812</v>
+        <v>1.002557256038537</v>
       </c>
       <c r="K7">
-        <v>1.043305319171399</v>
+        <v>1.013562698044783</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.045363927468555</v>
+        <v>0.9733593223645411</v>
       </c>
       <c r="N7">
-        <v>1.038691994687573</v>
+        <v>1.004636176413199</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005011092178565</v>
+        <v>0.9745632562529399</v>
       </c>
       <c r="D8">
-        <v>1.023062799233963</v>
+        <v>0.9978453139087007</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.023774602013347</v>
+        <v>0.9508963444046761</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042939963853378</v>
+        <v>1.033669480027823</v>
       </c>
       <c r="J8">
-        <v>1.026474925227285</v>
+        <v>0.9969359659020246</v>
       </c>
       <c r="K8">
-        <v>1.033939175695437</v>
+        <v>1.009054551108977</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.034641880377754</v>
+        <v>0.9627852654715801</v>
       </c>
       <c r="N8">
-        <v>1.027932637359427</v>
+        <v>1.002716494953946</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9793142747942836</v>
+        <v>0.9591760239532956</v>
       </c>
       <c r="D9">
-        <v>1.002683348374761</v>
+        <v>0.9871691027426714</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>1.000785375081578</v>
+        <v>0.9282674148919976</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035167469792578</v>
+        <v>1.030254328795649</v>
       </c>
       <c r="J9">
-        <v>1.005619257986256</v>
+        <v>0.9862575798413595</v>
       </c>
       <c r="K9">
-        <v>1.015733039628949</v>
+        <v>1.00047384009097</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.01386572296149</v>
+        <v>0.9426424082754838</v>
       </c>
       <c r="N9">
-        <v>1.007047352678737</v>
+        <v>0.9990664379777676</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9601857566162582</v>
+        <v>0.9480885297722074</v>
       </c>
       <c r="D10">
-        <v>0.9875513207349462</v>
+        <v>0.9795027383813408</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9837398798647087</v>
+        <v>0.9118063673588125</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029305087366229</v>
+        <v>1.027725433351008</v>
       </c>
       <c r="J10">
-        <v>0.9900731962674021</v>
+        <v>0.9785246912502328</v>
       </c>
       <c r="K10">
-        <v>1.002149037367136</v>
+        <v>0.9942522089551264</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9984090558440082</v>
+        <v>0.9279741359982069</v>
       </c>
       <c r="N10">
-        <v>0.9914792137690847</v>
+        <v>0.9964218860214872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.951301044968922</v>
+        <v>0.9430555050066465</v>
       </c>
       <c r="D11">
-        <v>0.9805372295188419</v>
+        <v>0.9760311886563672</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9758437681115461</v>
+        <v>0.9042822763205974</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026566477550586</v>
+        <v>1.026562227179123</v>
       </c>
       <c r="J11">
-        <v>0.9828501116002332</v>
+        <v>0.9750053266662736</v>
       </c>
       <c r="K11">
-        <v>0.9958357617698895</v>
+        <v>0.9914197339300724</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9912360810135979</v>
+        <v>0.9212671388804892</v>
       </c>
       <c r="N11">
-        <v>0.9842458714931887</v>
+        <v>0.9952182403075699</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9478964234325699</v>
+        <v>0.9411475960851899</v>
       </c>
       <c r="D12">
-        <v>0.9778521412785093</v>
+        <v>0.9747166837641917</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9728216791893405</v>
+        <v>0.9014207316665508</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025514957177918</v>
+        <v>1.026119074447256</v>
       </c>
       <c r="J12">
-        <v>0.9800821683062264</v>
+        <v>0.9736698343398097</v>
       </c>
       <c r="K12">
-        <v>0.9934163264289663</v>
+        <v>0.9903448495614815</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9884887774542636</v>
+        <v>0.9187161374397833</v>
       </c>
       <c r="N12">
-        <v>0.9814739974022172</v>
+        <v>0.9947615065859235</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9486317132155291</v>
+        <v>0.9415586505601272</v>
       </c>
       <c r="D13">
-        <v>0.9784319025668415</v>
+        <v>0.9749998203004797</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368228</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9734741777102754</v>
+        <v>0.9020376932752117</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025742141076289</v>
+        <v>1.026214648834868</v>
       </c>
       <c r="J13">
-        <v>0.9806799530834514</v>
+        <v>0.9739576254549999</v>
       </c>
       <c r="K13">
-        <v>0.9939388487248869</v>
+        <v>0.9905764816268422</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9890820372787442</v>
+        <v>0.9192661515875801</v>
       </c>
       <c r="N13">
-        <v>0.9820726311023927</v>
+        <v>0.9948599291385828</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9510218411452003</v>
+        <v>0.9428986028790863</v>
       </c>
       <c r="D14">
-        <v>0.9803169743508475</v>
+        <v>0.9759230554227164</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9755958565848565</v>
+        <v>0.9040471482238497</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026480285564607</v>
+        <v>1.026525827525514</v>
       </c>
       <c r="J14">
-        <v>0.9826231192967481</v>
+        <v>0.9748955268130107</v>
       </c>
       <c r="K14">
-        <v>0.9956373516819275</v>
+        <v>0.9913313607909037</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9910107513421653</v>
+        <v>0.9210575309642939</v>
       </c>
       <c r="N14">
-        <v>0.9840185568345968</v>
+        <v>0.9951806887259061</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.952480164052217</v>
+        <v>0.9437189853399394</v>
       </c>
       <c r="D15">
-        <v>0.9814675128974228</v>
+        <v>0.9764885051178691</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.976890888254441</v>
+        <v>0.9052761562811938</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026930396509619</v>
+        <v>1.026716058560118</v>
       </c>
       <c r="J15">
-        <v>0.9838087332842721</v>
+        <v>0.9754695730532125</v>
       </c>
       <c r="K15">
-        <v>0.9966736718582412</v>
+        <v>0.9917933844126047</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9921877402254243</v>
+        <v>0.9221531380495468</v>
       </c>
       <c r="N15">
-        <v>0.9852058545299747</v>
+        <v>0.9953770133954024</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9607615982115724</v>
+        <v>0.9484173742060159</v>
       </c>
       <c r="D16">
-        <v>0.9880062598612966</v>
+        <v>0.9797297526964533</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9842521211054697</v>
+        <v>0.9122967772655999</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029482284377423</v>
+        <v>1.027801125949799</v>
       </c>
       <c r="J16">
-        <v>0.990541318724231</v>
+        <v>0.9787544481684091</v>
       </c>
       <c r="K16">
-        <v>1.002558169299413</v>
+        <v>0.9944371118360416</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9988741178838791</v>
+        <v>0.9284112516301771</v>
       </c>
       <c r="N16">
-        <v>0.991948001013497</v>
+        <v>0.9965004649204086</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9657862191078072</v>
+        <v>0.9513000701687091</v>
       </c>
       <c r="D17">
-        <v>0.99197757230783</v>
+        <v>0.9817207717583682</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9887241814082096</v>
+        <v>0.9165897869640032</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03102673492589</v>
+        <v>1.028462949967321</v>
       </c>
       <c r="J17">
-        <v>0.9946257835495872</v>
+        <v>0.9807675020244299</v>
       </c>
       <c r="K17">
-        <v>1.006127741248457</v>
+        <v>0.9960570771458601</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.002932847923269</v>
+        <v>0.932237477411078</v>
       </c>
       <c r="N17">
-        <v>0.9960382662473992</v>
+        <v>0.9971889422118347</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.968660009738595</v>
+        <v>0.9529593729079198</v>
       </c>
       <c r="D18">
-        <v>0.9942502185732132</v>
+        <v>0.9828676007521088</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9912838506273606</v>
+        <v>0.919056131272398</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031908601549622</v>
+        <v>1.028842465705431</v>
       </c>
       <c r="J18">
-        <v>0.9969616226925742</v>
+        <v>0.9819253776113562</v>
       </c>
       <c r="K18">
-        <v>1.008168944347145</v>
+        <v>0.996988763257575</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.005254751608644</v>
+        <v>0.9344354230096704</v>
       </c>
       <c r="N18">
-        <v>0.9983774225498939</v>
+        <v>0.9975849351992675</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9696306084423729</v>
+        <v>0.9535214990000507</v>
       </c>
       <c r="D19">
-        <v>0.9950179896323625</v>
+        <v>0.9832562418109194</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680091</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9921486678043723</v>
+        <v>0.9198908970248488</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032206188303436</v>
+        <v>1.028970789307726</v>
       </c>
       <c r="J19">
-        <v>0.9977504849967448</v>
+        <v>0.9823174891947944</v>
       </c>
       <c r="K19">
-        <v>1.008858268272934</v>
+        <v>0.9973042583459272</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812711</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.006039036375926</v>
+        <v>0.9351793029428881</v>
       </c>
       <c r="N19">
-        <v>0.9991674051290205</v>
+        <v>0.9977190352184946</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9652531104592175</v>
+        <v>0.9509930966783815</v>
       </c>
       <c r="D20">
-        <v>0.9915560812960673</v>
+        <v>0.9815086687010297</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9882494964945951</v>
+        <v>0.9161331349879805</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03086302121715</v>
+        <v>1.02839262208616</v>
       </c>
       <c r="J20">
-        <v>0.9941924476164616</v>
+        <v>0.9805532241132329</v>
       </c>
       <c r="K20">
-        <v>1.005749049808255</v>
+        <v>0.9958846501274993</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.002502159859635</v>
+        <v>0.931830500764381</v>
       </c>
       <c r="N20">
-        <v>0.9956043149275445</v>
+        <v>0.9971156584568382</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9503210200030882</v>
+        <v>0.9425051121302704</v>
       </c>
       <c r="D21">
-        <v>0.9797641640018911</v>
+        <v>0.9756518954851849</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9749736426180061</v>
+        <v>0.9034573209528076</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026263905242667</v>
+        <v>1.026434506607147</v>
       </c>
       <c r="J21">
-        <v>0.9820533529138127</v>
+        <v>0.9746201404225808</v>
       </c>
       <c r="K21">
-        <v>0.9951393269266062</v>
+        <v>0.9911097138200459</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9904451818753003</v>
+        <v>0.9205317191034897</v>
       </c>
       <c r="N21">
-        <v>0.9834479813180445</v>
+        <v>0.9950865067995861</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9403188053981106</v>
+        <v>0.9369439181821573</v>
       </c>
       <c r="D22">
-        <v>0.9718817361540165</v>
+        <v>0.9718234321174367</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9661030249917373</v>
+        <v>0.8950967272434703</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023171086468622</v>
+        <v>1.025138703108629</v>
       </c>
       <c r="J22">
-        <v>0.9739218761807269</v>
+        <v>0.9707247926424682</v>
       </c>
       <c r="K22">
-        <v>0.9880315871345993</v>
+        <v>0.9879745285071529</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9823772831312567</v>
+        <v>0.9130782211753835</v>
       </c>
       <c r="N22">
-        <v>0.9753049569553041</v>
+        <v>0.9937543655390767</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9456849380519371</v>
+        <v>0.9399146229890958</v>
       </c>
       <c r="D23">
-        <v>0.9761088763446917</v>
+        <v>0.9738676396752454</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9708597902152248</v>
+        <v>0.8995686302034352</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024831388539667</v>
+        <v>1.0258320787518</v>
       </c>
       <c r="J23">
-        <v>0.9782842660783451</v>
+        <v>0.9728063909172217</v>
       </c>
       <c r="K23">
-        <v>0.9918447759100941</v>
+        <v>0.9896498978078917</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9867047085675903</v>
+        <v>0.9170649916668371</v>
       </c>
       <c r="N23">
-        <v>0.9796735419469498</v>
+        <v>0.9944662188683991</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9654941743859501</v>
+        <v>0.9511318728961559</v>
       </c>
       <c r="D24">
-        <v>0.9917466693917848</v>
+        <v>0.9816045535873659</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.988464136147157</v>
+        <v>0.9163395923203471</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030937054756485</v>
+        <v>1.028424420299583</v>
       </c>
       <c r="J24">
-        <v>0.9943883965409296</v>
+        <v>0.9806500972757853</v>
       </c>
       <c r="K24">
-        <v>1.005920289758814</v>
+        <v>0.9959626031594752</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.002696909026103</v>
+        <v>0.9320145000653764</v>
       </c>
       <c r="N24">
-        <v>0.995800542121961</v>
+        <v>0.9971487894252943</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.986272685346127</v>
+        <v>0.9632894832792716</v>
       </c>
       <c r="D25">
-        <v>1.008196916866283</v>
+        <v>0.9900193208700099</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.007000699662048</v>
+        <v>0.9343389716303085</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037285658932686</v>
+        <v>1.031179137334706</v>
       </c>
       <c r="J25">
-        <v>1.011271027439114</v>
+        <v>0.9891187692462444</v>
       </c>
       <c r="K25">
-        <v>1.020669305075303</v>
+        <v>1.002774575473098</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.019491302229718</v>
+        <v>0.9480499624179749</v>
       </c>
       <c r="N25">
-        <v>1.012707148292486</v>
+        <v>1.000044738480681</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9724006795682822</v>
+        <v>1.015029178380267</v>
       </c>
       <c r="D2">
-        <v>0.9963426090036244</v>
+        <v>1.020898508975491</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9477288081139721</v>
+        <v>1.013349474498112</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033197258712967</v>
+        <v>1.025985017275872</v>
       </c>
       <c r="J2">
-        <v>0.9954394274323697</v>
+        <v>1.020257032543634</v>
       </c>
       <c r="K2">
-        <v>1.007853133360442</v>
+        <v>1.023737433276965</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9599678153021707</v>
+        <v>1.016210892846108</v>
       </c>
       <c r="N2">
-        <v>1.002205171460986</v>
+        <v>1.010807882874443</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.978720269036074</v>
+        <v>1.016261521104688</v>
       </c>
       <c r="D3">
-        <v>1.000735642855991</v>
+        <v>1.021764630230072</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9569750671947642</v>
+        <v>1.015230421777562</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034569104070771</v>
+        <v>1.026172400556863</v>
       </c>
       <c r="J3">
-        <v>0.9998083439120161</v>
+        <v>1.021122717544598</v>
       </c>
       <c r="K3">
-        <v>1.011359119640213</v>
+        <v>1.02440972826532</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9681897591478537</v>
+        <v>1.017893555373141</v>
       </c>
       <c r="N3">
-        <v>1.003697623313823</v>
+        <v>1.011099616869766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9826848554766343</v>
+        <v>1.017057438760935</v>
       </c>
       <c r="D4">
-        <v>1.003494118474316</v>
+        <v>1.022323710285574</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9627611635282016</v>
+        <v>1.016445631929643</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035416431559249</v>
+        <v>1.026291734543892</v>
       </c>
       <c r="J4">
-        <v>1.002542100362846</v>
+        <v>1.021680951734834</v>
       </c>
       <c r="K4">
-        <v>1.013550554702353</v>
+        <v>1.024842760139441</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.973330825051278</v>
+        <v>1.018980074673626</v>
       </c>
       <c r="N4">
-        <v>1.004631003066224</v>
+        <v>1.011287593742698</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9843233842710293</v>
+        <v>1.017391691191299</v>
       </c>
       <c r="D5">
-        <v>1.004634664327085</v>
+        <v>1.0225584251408</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.965149601204406</v>
+        <v>1.016956068122135</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035763377170155</v>
+        <v>1.026341444912957</v>
       </c>
       <c r="J5">
-        <v>1.003670224885197</v>
+        <v>1.021915177337334</v>
       </c>
       <c r="K5">
-        <v>1.014454268182208</v>
+        <v>1.025024333619337</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9754519777283529</v>
+        <v>1.019436315000299</v>
       </c>
       <c r="N5">
-        <v>1.005016045529892</v>
+        <v>1.011366430274945</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9845968930240977</v>
+        <v>1.017447793199928</v>
       </c>
       <c r="D6">
-        <v>1.004825073928187</v>
+        <v>1.022597815972305</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9655481322395377</v>
+        <v>1.017041747314966</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035821097869764</v>
+        <v>1.026349764693594</v>
       </c>
       <c r="J6">
-        <v>1.003858434017968</v>
+        <v>1.021954478220663</v>
       </c>
       <c r="K6">
-        <v>1.014605000524882</v>
+        <v>1.025054792942258</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9758058483053323</v>
+        <v>1.019512888899634</v>
       </c>
       <c r="N6">
-        <v>1.005080275543912</v>
+        <v>1.011379656232332</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9827068582474177</v>
+        <v>1.017061906432103</v>
       </c>
       <c r="D7">
-        <v>1.003509432339587</v>
+        <v>1.022326847820376</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.962793247127204</v>
+        <v>1.016452454107502</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035421103403121</v>
+        <v>1.026292400573343</v>
       </c>
       <c r="J7">
-        <v>1.002557256038537</v>
+        <v>1.021684083255799</v>
       </c>
       <c r="K7">
-        <v>1.013562698044783</v>
+        <v>1.024845188188793</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9733593223645411</v>
+        <v>1.018986173055798</v>
       </c>
       <c r="N7">
-        <v>1.004636176413199</v>
+        <v>1.011288647901174</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9745632562529399</v>
+        <v>1.015445966297584</v>
       </c>
       <c r="D8">
-        <v>0.9978453139087007</v>
+        <v>1.021191501641208</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9508963444046761</v>
+        <v>1.013985548896827</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033669480027823</v>
+        <v>1.026048741526085</v>
       </c>
       <c r="J8">
-        <v>0.9969359659020246</v>
+        <v>1.020549995234453</v>
       </c>
       <c r="K8">
-        <v>1.009054551108977</v>
+        <v>1.023965051824303</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9627852654715801</v>
+        <v>1.016780035285445</v>
       </c>
       <c r="N8">
-        <v>1.002716494953946</v>
+        <v>1.010906641023296</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9591760239532956</v>
+        <v>1.012586811062699</v>
       </c>
       <c r="D9">
-        <v>0.9871691027426714</v>
+        <v>1.019180347249626</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9282674148919976</v>
+        <v>1.009623455046858</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030254328795649</v>
+        <v>1.025604669612713</v>
       </c>
       <c r="J9">
-        <v>0.9862575798413595</v>
+        <v>1.018536684697836</v>
       </c>
       <c r="K9">
-        <v>1.00047384009097</v>
+        <v>1.022398787142738</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9426424082754838</v>
+        <v>1.012874547523709</v>
       </c>
       <c r="N9">
-        <v>0.9990664379777676</v>
+        <v>1.010227353585033</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9480885297722074</v>
+        <v>1.010672518092039</v>
       </c>
       <c r="D10">
-        <v>0.9795027383813408</v>
+        <v>1.017832318065248</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9118063673588125</v>
+        <v>1.006704365103017</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027725433351008</v>
+        <v>1.025298667504187</v>
       </c>
       <c r="J10">
-        <v>0.9785246912502328</v>
+        <v>1.017184198937696</v>
       </c>
       <c r="K10">
-        <v>0.9942522089551264</v>
+        <v>1.021344108701945</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9279741359982069</v>
+        <v>1.010258006146867</v>
       </c>
       <c r="N10">
-        <v>0.9964218860214872</v>
+        <v>1.009770283971797</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9430555050066465</v>
+        <v>1.009841587163949</v>
       </c>
       <c r="D11">
-        <v>0.9760311886563672</v>
+        <v>1.017246843468693</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9042822763205974</v>
+        <v>1.005437554726969</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026562227179123</v>
+        <v>1.025163789999374</v>
       </c>
       <c r="J11">
-        <v>0.9750053266662736</v>
+        <v>1.016596061128532</v>
       </c>
       <c r="K11">
-        <v>0.9914197339300724</v>
+        <v>1.020884889351004</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9212671388804892</v>
+        <v>1.009121783411077</v>
       </c>
       <c r="N11">
-        <v>0.9952182403075699</v>
+        <v>1.009571350417989</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9411475960851899</v>
+        <v>1.009532630648451</v>
       </c>
       <c r="D12">
-        <v>0.9747166837641917</v>
+        <v>1.01702910268733</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9014207316665508</v>
+        <v>1.00496656349005</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026119074447256</v>
+        <v>1.025113332141752</v>
       </c>
       <c r="J12">
-        <v>0.9736698343398097</v>
+        <v>1.016377219429512</v>
       </c>
       <c r="K12">
-        <v>0.9903448495614815</v>
+        <v>1.020713930098511</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9187161374397833</v>
+        <v>1.00869923724308</v>
       </c>
       <c r="N12">
-        <v>0.9947615065859235</v>
+        <v>1.009497302849584</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9415586505601272</v>
+        <v>1.009598917089179</v>
       </c>
       <c r="D13">
-        <v>0.9749998203004797</v>
+        <v>1.01707582107654</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9020376932752117</v>
+        <v>1.005067612960963</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026214648834868</v>
+        <v>1.025124171760413</v>
       </c>
       <c r="J13">
-        <v>0.9739576254549999</v>
+        <v>1.016424179047047</v>
       </c>
       <c r="K13">
-        <v>0.9905764816268422</v>
+        <v>1.020750618907659</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9192661515875801</v>
+        <v>1.008789897813531</v>
       </c>
       <c r="N13">
-        <v>0.9948599291385828</v>
+        <v>1.009513193335381</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9428986028790863</v>
+        <v>1.00981605512204</v>
       </c>
       <c r="D14">
-        <v>0.9759230554227164</v>
+        <v>1.017228850465823</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9040471482238497</v>
+        <v>1.005398631549013</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026525827525514</v>
+        <v>1.025159626454841</v>
       </c>
       <c r="J14">
-        <v>0.9748955268130107</v>
+        <v>1.016577979410354</v>
       </c>
       <c r="K14">
-        <v>0.9913313607909037</v>
+        <v>1.020870765675634</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9210575309642939</v>
+        <v>1.00908686595151</v>
       </c>
       <c r="N14">
-        <v>0.9951806887259061</v>
+        <v>1.009565232790072</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9437189853399394</v>
+        <v>1.009949799511044</v>
       </c>
       <c r="D15">
-        <v>0.9764885051178691</v>
+        <v>1.017323101108176</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9052761562811938</v>
+        <v>1.005602524016854</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026716058560118</v>
+        <v>1.025181423738767</v>
       </c>
       <c r="J15">
-        <v>0.9754695730532125</v>
+        <v>1.016672690231786</v>
       </c>
       <c r="K15">
-        <v>0.9917933844126047</v>
+        <v>1.020944740973443</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9221531380495468</v>
+        <v>1.009269770784584</v>
       </c>
       <c r="N15">
-        <v>0.9953770133954024</v>
+        <v>1.009597275455284</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9484173742060159</v>
+        <v>1.010727620898242</v>
       </c>
       <c r="D16">
-        <v>0.9797297526964533</v>
+        <v>1.017871136502068</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9122967772655999</v>
+        <v>1.006788378164485</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027801125949799</v>
+        <v>1.025307568698311</v>
       </c>
       <c r="J16">
-        <v>0.9787544481684091</v>
+        <v>1.017223178542974</v>
       </c>
       <c r="K16">
-        <v>0.9944371118360416</v>
+        <v>1.021374531824458</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9284112516301771</v>
+        <v>1.010333343884544</v>
       </c>
       <c r="N16">
-        <v>0.9965004649204086</v>
+        <v>1.009783464919885</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9513000701687091</v>
+        <v>1.011214979536307</v>
       </c>
       <c r="D17">
-        <v>0.9817207717583682</v>
+        <v>1.018214428424035</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9165897869640032</v>
+        <v>1.007531464807947</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028462949967321</v>
+        <v>1.025386058915034</v>
       </c>
       <c r="J17">
-        <v>0.9807675020244299</v>
+        <v>1.017567811695006</v>
       </c>
       <c r="K17">
-        <v>0.9960570771458601</v>
+        <v>1.021643446588138</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.932237477411078</v>
+        <v>1.010999616234116</v>
       </c>
       <c r="N17">
-        <v>0.9971889422118347</v>
+        <v>1.009899982581824</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9529593729079198</v>
+        <v>1.011499052241382</v>
       </c>
       <c r="D18">
-        <v>0.9828676007521088</v>
+        <v>1.018414494356119</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.919056131272398</v>
+        <v>1.007964623244654</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028842465705431</v>
+        <v>1.025431611714428</v>
       </c>
       <c r="J18">
-        <v>0.9819253776113562</v>
+        <v>1.017768589273532</v>
       </c>
       <c r="K18">
-        <v>0.996988763257575</v>
+        <v>1.021800055521324</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9344354230096704</v>
+        <v>1.011387929751376</v>
       </c>
       <c r="N18">
-        <v>0.9975849351992675</v>
+        <v>1.009967847117704</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9535214990000507</v>
+        <v>1.011595880765678</v>
       </c>
       <c r="D19">
-        <v>0.9832562418109194</v>
+        <v>1.018482682869384</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9198908970248488</v>
+        <v>1.0081122735505</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028970789307726</v>
+        <v>1.025447105201529</v>
       </c>
       <c r="J19">
-        <v>0.9823174891947944</v>
+        <v>1.017837008497779</v>
       </c>
       <c r="K19">
-        <v>0.9973042583459272</v>
+        <v>1.021853413758318</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9351793029428881</v>
+        <v>1.011520282185164</v>
       </c>
       <c r="N19">
-        <v>0.9977190352184946</v>
+        <v>1.009990970555705</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9509930966783815</v>
+        <v>1.011162710823286</v>
       </c>
       <c r="D20">
-        <v>0.9815086687010297</v>
+        <v>1.01817761410646</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>0.9161331349879805</v>
+        <v>1.007451766844809</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02839262208616</v>
+        <v>1.025377661376259</v>
       </c>
       <c r="J20">
-        <v>0.9805532241132329</v>
+        <v>1.017530860796798</v>
       </c>
       <c r="K20">
-        <v>0.9958846501274993</v>
+        <v>1.021614619895921</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.931830500764381</v>
+        <v>1.01092816388763</v>
       </c>
       <c r="N20">
-        <v>0.9971156584568382</v>
+        <v>1.009887491513598</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9425051121302704</v>
+        <v>1.009752122045332</v>
       </c>
       <c r="D21">
-        <v>0.9756518954851849</v>
+        <v>1.017183794592605</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9034573209528076</v>
+        <v>1.005301167149094</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026434506607147</v>
+        <v>1.025149195833626</v>
       </c>
       <c r="J21">
-        <v>0.9746201404225808</v>
+        <v>1.016532699599426</v>
       </c>
       <c r="K21">
-        <v>0.9911097138200459</v>
+        <v>1.020835396097171</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9205317191034897</v>
+        <v>1.008999430229774</v>
       </c>
       <c r="N21">
-        <v>0.9950865067995861</v>
+        <v>1.00954991275389</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9369439181821573</v>
+        <v>1.008863421627581</v>
       </c>
       <c r="D22">
-        <v>0.9718234321174367</v>
+        <v>1.016557380025613</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.8950967272434703</v>
+        <v>1.003946437076053</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025138703108629</v>
+        <v>1.025003476540477</v>
       </c>
       <c r="J22">
-        <v>0.9707247926424682</v>
+        <v>1.015902908346093</v>
       </c>
       <c r="K22">
-        <v>0.9879745285071529</v>
+        <v>1.020343239352242</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9130782211753835</v>
+        <v>1.007783844139544</v>
       </c>
       <c r="N22">
-        <v>0.9937543655390767</v>
+        <v>1.009336767202929</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9399146229890958</v>
+        <v>1.009334712153209</v>
       </c>
       <c r="D23">
-        <v>0.9738676396752454</v>
+        <v>1.016889603421335</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636464</v>
       </c>
       <c r="F23">
-        <v>0.8995686302034352</v>
+        <v>1.004664853754937</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0258320787518</v>
+        <v>1.025080922116838</v>
       </c>
       <c r="J23">
-        <v>0.9728063909172217</v>
+        <v>1.016236983603028</v>
       </c>
       <c r="K23">
-        <v>0.9896498978078917</v>
+        <v>1.0206043533523</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887611</v>
       </c>
       <c r="M23">
-        <v>0.9170649916668371</v>
+        <v>1.008428530724821</v>
       </c>
       <c r="N23">
-        <v>0.9944662188683991</v>
+        <v>1.009449845210769</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9511318728961559</v>
+        <v>1.011186329407847</v>
       </c>
       <c r="D24">
-        <v>0.9816045535873659</v>
+        <v>1.018194249438301</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9163395923203471</v>
+        <v>1.007487779760723</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028424420299583</v>
+        <v>1.025381456570714</v>
       </c>
       <c r="J24">
-        <v>0.9806500972757853</v>
+        <v>1.017547558061726</v>
       </c>
       <c r="K24">
-        <v>0.9959626031594752</v>
+        <v>1.021627646192486</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766441</v>
       </c>
       <c r="M24">
-        <v>0.9320145000653764</v>
+        <v>1.010960451089451</v>
       </c>
       <c r="N24">
-        <v>0.9971487894252943</v>
+        <v>1.009893135993093</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9632894832792716</v>
+        <v>1.013327388925091</v>
       </c>
       <c r="D25">
-        <v>0.9900193208700099</v>
+        <v>1.019701545049702</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607051</v>
       </c>
       <c r="F25">
-        <v>0.9343389716303085</v>
+        <v>1.010753039481323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031179137334706</v>
+        <v>1.02572122276029</v>
       </c>
       <c r="J25">
-        <v>0.9891187692462444</v>
+        <v>1.019058966257078</v>
       </c>
       <c r="K25">
-        <v>1.002774575473098</v>
+        <v>1.022805541799703</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426416</v>
       </c>
       <c r="M25">
-        <v>0.9480499624179749</v>
+        <v>1.013886422316093</v>
       </c>
       <c r="N25">
-        <v>1.000044738480681</v>
+        <v>1.010403701911381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015029178380267</v>
+        <v>0.9724006795682818</v>
       </c>
       <c r="D2">
-        <v>1.020898508975491</v>
+        <v>0.996342609003624</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.013349474498112</v>
+        <v>0.9477288081139718</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025985017275872</v>
+        <v>1.033197258712966</v>
       </c>
       <c r="J2">
-        <v>1.020257032543634</v>
+        <v>0.9954394274323694</v>
       </c>
       <c r="K2">
-        <v>1.023737433276965</v>
+        <v>1.007853133360442</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.016210892846108</v>
+        <v>0.95996781530217</v>
       </c>
       <c r="N2">
-        <v>1.010807882874443</v>
+        <v>1.002205171460986</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016261521104688</v>
+        <v>0.9787202690360742</v>
       </c>
       <c r="D3">
-        <v>1.021764630230072</v>
+        <v>1.000735642855991</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.015230421777562</v>
+        <v>0.9569750671947649</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026172400556863</v>
+        <v>1.034569104070771</v>
       </c>
       <c r="J3">
-        <v>1.021122717544598</v>
+        <v>0.9998083439120163</v>
       </c>
       <c r="K3">
-        <v>1.02440972826532</v>
+        <v>1.011359119640213</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.017893555373141</v>
+        <v>0.9681897591478542</v>
       </c>
       <c r="N3">
-        <v>1.011099616869766</v>
+        <v>1.003697623313823</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017057438760935</v>
+        <v>0.9826848554766341</v>
       </c>
       <c r="D4">
-        <v>1.022323710285574</v>
+        <v>1.003494118474316</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.016445631929643</v>
+        <v>0.9627611635282013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026291734543892</v>
+        <v>1.035416431559249</v>
       </c>
       <c r="J4">
-        <v>1.021680951734834</v>
+        <v>1.002542100362846</v>
       </c>
       <c r="K4">
-        <v>1.024842760139441</v>
+        <v>1.013550554702353</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.018980074673626</v>
+        <v>0.9733308250512779</v>
       </c>
       <c r="N4">
-        <v>1.011287593742698</v>
+        <v>1.004631003066224</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017391691191299</v>
+        <v>0.9843233842710295</v>
       </c>
       <c r="D5">
-        <v>1.0225584251408</v>
+        <v>1.004634664327086</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.016956068122135</v>
+        <v>0.965149601204406</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026341444912957</v>
+        <v>1.035763377170155</v>
       </c>
       <c r="J5">
-        <v>1.021915177337334</v>
+        <v>1.003670224885197</v>
       </c>
       <c r="K5">
-        <v>1.025024333619337</v>
+        <v>1.014454268182208</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.019436315000299</v>
+        <v>0.9754519777283526</v>
       </c>
       <c r="N5">
-        <v>1.011366430274945</v>
+        <v>1.005016045529891</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017447793199928</v>
+        <v>0.9845968930240969</v>
       </c>
       <c r="D6">
-        <v>1.022597815972305</v>
+        <v>1.004825073928186</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.017041747314966</v>
+        <v>0.9655481322395369</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026349764693594</v>
+        <v>1.035821097869764</v>
       </c>
       <c r="J6">
-        <v>1.021954478220663</v>
+        <v>1.003858434017967</v>
       </c>
       <c r="K6">
-        <v>1.025054792942258</v>
+        <v>1.014605000524881</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.019512888899634</v>
+        <v>0.9758058483053317</v>
       </c>
       <c r="N6">
-        <v>1.011379656232332</v>
+        <v>1.005080275543912</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017061906432103</v>
+        <v>0.9827068582474155</v>
       </c>
       <c r="D7">
-        <v>1.022326847820376</v>
+        <v>1.003509432339585</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.016452454107502</v>
+        <v>0.962793247127202</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026292400573343</v>
+        <v>1.03542110340312</v>
       </c>
       <c r="J7">
-        <v>1.021684083255799</v>
+        <v>1.002557256038535</v>
       </c>
       <c r="K7">
-        <v>1.024845188188793</v>
+        <v>1.013562698044781</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.018986173055798</v>
+        <v>0.9733593223645391</v>
       </c>
       <c r="N7">
-        <v>1.011288647901174</v>
+        <v>1.004636176413198</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015445966297584</v>
+        <v>0.97456325625294</v>
       </c>
       <c r="D8">
-        <v>1.021191501641208</v>
+        <v>0.9978453139087006</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.013985548896827</v>
+        <v>0.9508963444046765</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026048741526085</v>
+        <v>1.033669480027823</v>
       </c>
       <c r="J8">
-        <v>1.020549995234453</v>
+        <v>0.9969359659020247</v>
       </c>
       <c r="K8">
-        <v>1.023965051824303</v>
+        <v>1.009054551108977</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.016780035285445</v>
+        <v>0.9627852654715805</v>
       </c>
       <c r="N8">
-        <v>1.010906641023296</v>
+        <v>1.002716494953946</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012586811062699</v>
+        <v>0.9591760239532962</v>
       </c>
       <c r="D9">
-        <v>1.019180347249626</v>
+        <v>0.9871691027426721</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.009623455046858</v>
+        <v>0.9282674148919979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025604669612713</v>
+        <v>1.030254328795649</v>
       </c>
       <c r="J9">
-        <v>1.018536684697836</v>
+        <v>0.9862575798413601</v>
       </c>
       <c r="K9">
-        <v>1.022398787142738</v>
+        <v>1.000473840090971</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.012874547523709</v>
+        <v>0.9426424082754841</v>
       </c>
       <c r="N9">
-        <v>1.010227353585033</v>
+        <v>0.999066437977768</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010672518092039</v>
+        <v>0.9480885297722073</v>
       </c>
       <c r="D10">
-        <v>1.017832318065248</v>
+        <v>0.9795027383813407</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.006704365103017</v>
+        <v>0.9118063673588122</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025298667504187</v>
+        <v>1.027725433351008</v>
       </c>
       <c r="J10">
-        <v>1.017184198937696</v>
+        <v>0.9785246912502327</v>
       </c>
       <c r="K10">
-        <v>1.021344108701945</v>
+        <v>0.9942522089551262</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.010258006146867</v>
+        <v>0.9279741359982066</v>
       </c>
       <c r="N10">
-        <v>1.009770283971797</v>
+        <v>0.9964218860214873</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009841587163949</v>
+        <v>0.9430555050066457</v>
       </c>
       <c r="D11">
-        <v>1.017246843468693</v>
+        <v>0.9760311886563664</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.005437554726969</v>
+        <v>0.9042822763205971</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025163789999374</v>
+        <v>1.026562227179123</v>
       </c>
       <c r="J11">
-        <v>1.016596061128532</v>
+        <v>0.9750053266662729</v>
       </c>
       <c r="K11">
-        <v>1.020884889351004</v>
+        <v>0.9914197339300719</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.009121783411077</v>
+        <v>0.9212671388804887</v>
       </c>
       <c r="N11">
-        <v>1.009571350417989</v>
+        <v>0.9952182403075697</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009532630648451</v>
+        <v>0.9411475960851896</v>
       </c>
       <c r="D12">
-        <v>1.01702910268733</v>
+        <v>0.9747166837641916</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.00496656349005</v>
+        <v>0.9014207316665507</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025113332141752</v>
+        <v>1.026119074447257</v>
       </c>
       <c r="J12">
-        <v>1.016377219429512</v>
+        <v>0.9736698343398094</v>
       </c>
       <c r="K12">
-        <v>1.020713930098511</v>
+        <v>0.9903448495614813</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.00869923724308</v>
+        <v>0.9187161374397834</v>
       </c>
       <c r="N12">
-        <v>1.009497302849584</v>
+        <v>0.9947615065859234</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009598917089179</v>
+        <v>0.941558650560126</v>
       </c>
       <c r="D13">
-        <v>1.01707582107654</v>
+        <v>0.9749998203004785</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.005067612960963</v>
+        <v>0.9020376932752102</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025124171760413</v>
+        <v>1.026214648834867</v>
       </c>
       <c r="J13">
-        <v>1.016424179047047</v>
+        <v>0.9739576254549988</v>
       </c>
       <c r="K13">
-        <v>1.020750618907659</v>
+        <v>0.9905764816268409</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.008789897813531</v>
+        <v>0.9192661515875785</v>
       </c>
       <c r="N13">
-        <v>1.009513193335381</v>
+        <v>0.9948599291385825</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00981605512204</v>
+        <v>0.9428986028790858</v>
       </c>
       <c r="D14">
-        <v>1.017228850465823</v>
+        <v>0.9759230554227162</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.005398631549013</v>
+        <v>0.9040471482238495</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025159626454841</v>
+        <v>1.026525827525514</v>
       </c>
       <c r="J14">
-        <v>1.016577979410354</v>
+        <v>0.9748955268130103</v>
       </c>
       <c r="K14">
-        <v>1.020870765675634</v>
+        <v>0.9913313607909033</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.00908686595151</v>
+        <v>0.9210575309642934</v>
       </c>
       <c r="N14">
-        <v>1.009565232790072</v>
+        <v>0.9951806887259059</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009949799511044</v>
+        <v>0.9437189853399393</v>
       </c>
       <c r="D15">
-        <v>1.017323101108176</v>
+        <v>0.9764885051178693</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.005602524016854</v>
+        <v>0.9052761562811931</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025181423738767</v>
+        <v>1.026716058560118</v>
       </c>
       <c r="J15">
-        <v>1.016672690231786</v>
+        <v>0.9754695730532125</v>
       </c>
       <c r="K15">
-        <v>1.020944740973443</v>
+        <v>0.9917933844126048</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.009269770784584</v>
+        <v>0.922153138049546</v>
       </c>
       <c r="N15">
-        <v>1.009597275455284</v>
+        <v>0.9953770133954023</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010727620898242</v>
+        <v>0.9484173742060152</v>
       </c>
       <c r="D16">
-        <v>1.017871136502068</v>
+        <v>0.9797297526964525</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.006788378164485</v>
+        <v>0.9122967772655989</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025307568698311</v>
+        <v>1.027801125949798</v>
       </c>
       <c r="J16">
-        <v>1.017223178542974</v>
+        <v>0.9787544481684083</v>
       </c>
       <c r="K16">
-        <v>1.021374531824458</v>
+        <v>0.9944371118360407</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.010333343884544</v>
+        <v>0.9284112516301765</v>
       </c>
       <c r="N16">
-        <v>1.009783464919885</v>
+        <v>0.9965004649204082</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011214979536307</v>
+        <v>0.9513000701687091</v>
       </c>
       <c r="D17">
-        <v>1.018214428424035</v>
+        <v>0.981720771758368</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.007531464807947</v>
+        <v>0.9165897869640025</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025386058915034</v>
+        <v>1.028462949967321</v>
       </c>
       <c r="J17">
-        <v>1.017567811695006</v>
+        <v>0.9807675020244297</v>
       </c>
       <c r="K17">
-        <v>1.021643446588138</v>
+        <v>0.9960570771458599</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.010999616234116</v>
+        <v>0.9322374774110773</v>
       </c>
       <c r="N17">
-        <v>1.009899982581824</v>
+        <v>0.9971889422118347</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011499052241382</v>
+        <v>0.9529593729079193</v>
       </c>
       <c r="D18">
-        <v>1.018414494356119</v>
+        <v>0.982867600752108</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.007964623244654</v>
+        <v>0.9190561312723977</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025431611714428</v>
+        <v>1.028842465705431</v>
       </c>
       <c r="J18">
-        <v>1.017768589273532</v>
+        <v>0.9819253776113555</v>
       </c>
       <c r="K18">
-        <v>1.021800055521324</v>
+        <v>0.9969887632575745</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.011387929751376</v>
+        <v>0.9344354230096699</v>
       </c>
       <c r="N18">
-        <v>1.009967847117704</v>
+        <v>0.9975849351992673</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011595880765678</v>
+        <v>0.9535214990000508</v>
       </c>
       <c r="D19">
-        <v>1.018482682869384</v>
+        <v>0.9832562418109196</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.0081122735505</v>
+        <v>0.9198908970248492</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025447105201529</v>
+        <v>1.028970789307726</v>
       </c>
       <c r="J19">
-        <v>1.017837008497779</v>
+        <v>0.9823174891947947</v>
       </c>
       <c r="K19">
-        <v>1.021853413758318</v>
+        <v>0.9973042583459275</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.011520282185164</v>
+        <v>0.9351793029428883</v>
       </c>
       <c r="N19">
-        <v>1.009990970555705</v>
+        <v>0.9977190352184944</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011162710823286</v>
+        <v>0.9509930966783818</v>
       </c>
       <c r="D20">
-        <v>1.01817761410646</v>
+        <v>0.9815086687010299</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.007451766844809</v>
+        <v>0.9161331349879809</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025377661376259</v>
+        <v>1.02839262208616</v>
       </c>
       <c r="J20">
-        <v>1.017530860796798</v>
+        <v>0.980553224113233</v>
       </c>
       <c r="K20">
-        <v>1.021614619895921</v>
+        <v>0.9958846501274996</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.01092816388763</v>
+        <v>0.9318305007643812</v>
       </c>
       <c r="N20">
-        <v>1.009887491513598</v>
+        <v>0.9971156584568381</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009752122045332</v>
+        <v>0.9425051121302706</v>
       </c>
       <c r="D21">
-        <v>1.017183794592605</v>
+        <v>0.9756518954851855</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.005301167149094</v>
+        <v>0.9034573209528075</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025149195833626</v>
+        <v>1.026434506607147</v>
       </c>
       <c r="J21">
-        <v>1.016532699599426</v>
+        <v>0.974620140422581</v>
       </c>
       <c r="K21">
-        <v>1.020835396097171</v>
+        <v>0.9911097138200463</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.008999430229774</v>
+        <v>0.9205317191034895</v>
       </c>
       <c r="N21">
-        <v>1.00954991275389</v>
+        <v>0.9950865067995861</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008863421627581</v>
+        <v>0.9369439181821565</v>
       </c>
       <c r="D22">
-        <v>1.016557380025613</v>
+        <v>0.9718234321174359</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.003946437076053</v>
+        <v>0.89509672724347</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025003476540477</v>
+        <v>1.025138703108628</v>
       </c>
       <c r="J22">
-        <v>1.015902908346093</v>
+        <v>0.9707247926424676</v>
       </c>
       <c r="K22">
-        <v>1.020343239352242</v>
+        <v>0.9879745285071523</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.007783844139544</v>
+        <v>0.9130782211753833</v>
       </c>
       <c r="N22">
-        <v>1.009336767202929</v>
+        <v>0.9937543655390765</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009334712153209</v>
+        <v>0.9399146229890958</v>
       </c>
       <c r="D23">
-        <v>1.016889603421335</v>
+        <v>0.973867639675245</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636464</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.004664853754937</v>
+        <v>0.8995686302034354</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025080922116838</v>
+        <v>1.025832078751799</v>
       </c>
       <c r="J23">
-        <v>1.016236983603028</v>
+        <v>0.9728063909172217</v>
       </c>
       <c r="K23">
-        <v>1.0206043533523</v>
+        <v>0.9896498978078914</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887611</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.008428530724821</v>
+        <v>0.9170649916668371</v>
       </c>
       <c r="N23">
-        <v>1.009449845210769</v>
+        <v>0.9944662188683991</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011186329407847</v>
+        <v>0.9511318728961574</v>
       </c>
       <c r="D24">
-        <v>1.018194249438301</v>
+        <v>0.981604553587367</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.007487779760723</v>
+        <v>0.9163395923203486</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025381456570714</v>
+        <v>1.028424420299584</v>
       </c>
       <c r="J24">
-        <v>1.017547558061726</v>
+        <v>0.9806500972757868</v>
       </c>
       <c r="K24">
-        <v>1.021627646192486</v>
+        <v>0.9959626031594763</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766441</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.010960451089451</v>
+        <v>0.9320145000653779</v>
       </c>
       <c r="N24">
-        <v>1.009893135993093</v>
+        <v>0.9971487894252948</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013327388925091</v>
+        <v>0.9632894832792717</v>
       </c>
       <c r="D25">
-        <v>1.019701545049702</v>
+        <v>0.9900193208700099</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607051</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.010753039481323</v>
+        <v>0.9343389716303081</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02572122276029</v>
+        <v>1.031179137334706</v>
       </c>
       <c r="J25">
-        <v>1.019058966257078</v>
+        <v>0.9891187692462443</v>
       </c>
       <c r="K25">
-        <v>1.022805541799703</v>
+        <v>1.002774575473098</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426416</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.013886422316093</v>
+        <v>0.9480499624179743</v>
       </c>
       <c r="N25">
-        <v>1.010403701911381</v>
+        <v>1.000044738480681</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9724006795682818</v>
+        <v>1.004619043237994</v>
       </c>
       <c r="D2">
-        <v>0.996342609003624</v>
+        <v>1.026352196913749</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9477288081139718</v>
+        <v>1.030643673972724</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033197258712966</v>
+        <v>1.045482709919197</v>
       </c>
       <c r="J2">
-        <v>0.9954394274323694</v>
+        <v>1.026662471804535</v>
       </c>
       <c r="K2">
-        <v>1.007853133360442</v>
+        <v>1.037456216902438</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.95996781530217</v>
+        <v>1.041691983804288</v>
       </c>
       <c r="N2">
-        <v>1.002205171460986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012429093212683</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041568798345434</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037555055283916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9787202690360742</v>
+        <v>1.008920574442669</v>
       </c>
       <c r="D3">
-        <v>1.000735642855991</v>
+        <v>1.029160252314982</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9569750671947649</v>
+        <v>1.033574471357303</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034569104070771</v>
+        <v>1.046221186575615</v>
       </c>
       <c r="J3">
-        <v>0.9998083439120163</v>
+        <v>1.029170974751346</v>
       </c>
       <c r="K3">
-        <v>1.011359119640213</v>
+        <v>1.039433137141528</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9681897591478542</v>
+        <v>1.043795053654895</v>
       </c>
       <c r="N3">
-        <v>1.003697623313823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01330674290931</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043233232751837</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038950246852337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9826848554766341</v>
+        <v>1.011650481832289</v>
       </c>
       <c r="D4">
-        <v>1.003494118474316</v>
+        <v>1.030945947678988</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9627611635282013</v>
+        <v>1.035441958433197</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035416431559249</v>
+        <v>1.046679641133969</v>
       </c>
       <c r="J4">
-        <v>1.002542100362846</v>
+        <v>1.030760790340623</v>
       </c>
       <c r="K4">
-        <v>1.013550554702353</v>
+        <v>1.040684695299413</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9733308250512779</v>
+        <v>1.045130650490024</v>
       </c>
       <c r="N4">
-        <v>1.004631003066224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013862634081984</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044290263342939</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039836104251265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9843233842710295</v>
+        <v>1.01279091952219</v>
       </c>
       <c r="D5">
-        <v>1.004634664327086</v>
+        <v>1.031694893560357</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.965149601204406</v>
+        <v>1.036224491339247</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035763377170155</v>
+        <v>1.046870487632862</v>
       </c>
       <c r="J5">
-        <v>1.003670224885197</v>
+        <v>1.031426422562129</v>
       </c>
       <c r="K5">
-        <v>1.014454268182208</v>
+        <v>1.041209866209109</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9754519777283526</v>
+        <v>1.045690378550305</v>
       </c>
       <c r="N5">
-        <v>1.005016045529891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014096000858667</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044733248126374</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040214613394685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9845968930240969</v>
+        <v>1.012987971802176</v>
       </c>
       <c r="D6">
-        <v>1.004825073928186</v>
+        <v>1.031826953641707</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9655481322395369</v>
+        <v>1.036360564865211</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035821097869764</v>
+        <v>1.046905532850041</v>
       </c>
       <c r="J6">
-        <v>1.003858434017967</v>
+        <v>1.031543868209159</v>
       </c>
       <c r="K6">
-        <v>1.014605000524881</v>
+        <v>1.041304328726674</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9758058483053317</v>
+        <v>1.045789036498286</v>
       </c>
       <c r="N6">
-        <v>1.005080275543912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014138033972346</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044811328818159</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040290147749291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9827068582474155</v>
+        <v>1.011682733601079</v>
       </c>
       <c r="D7">
-        <v>1.003509432339585</v>
+        <v>1.030974121093053</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.962793247127202</v>
+        <v>1.035466115472378</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03542110340312</v>
+        <v>1.046691029538968</v>
       </c>
       <c r="J7">
-        <v>1.002557256038535</v>
+        <v>1.030786259391908</v>
       </c>
       <c r="K7">
-        <v>1.013562698044781</v>
+        <v>1.040709672426334</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9733593223645391</v>
+        <v>1.045151675734443</v>
       </c>
       <c r="N7">
-        <v>1.004636176413198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013873920150782</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044306903327106</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039873874263152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.97456325625294</v>
+        <v>1.006105626495782</v>
       </c>
       <c r="D8">
-        <v>0.9978453139087006</v>
+        <v>1.02733063545271</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9508963444046765</v>
+        <v>1.031657517448696</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033669480027823</v>
+        <v>1.045747508222345</v>
       </c>
       <c r="J8">
-        <v>0.9969359659020247</v>
+        <v>1.027538187915827</v>
       </c>
       <c r="K8">
-        <v>1.009054551108977</v>
+        <v>1.038152697146653</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9627852654715805</v>
+        <v>1.042425084973426</v>
       </c>
       <c r="N8">
-        <v>1.002716494953946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012738667842994</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042148997676713</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038070455370559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9591760239532962</v>
+        <v>0.9958204104232459</v>
       </c>
       <c r="D9">
-        <v>0.9871691027426721</v>
+        <v>1.020631369623956</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923921</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9282674148919979</v>
+        <v>1.024692801294685</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030254328795649</v>
+        <v>1.043918577246263</v>
       </c>
       <c r="J9">
-        <v>0.9862575798413601</v>
+        <v>1.021521629018797</v>
       </c>
       <c r="K9">
-        <v>1.000473840090971</v>
+        <v>1.033398356271158</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832515</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9426424082754841</v>
+        <v>1.037397567357965</v>
       </c>
       <c r="N9">
-        <v>0.999066437977768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010629269919733</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038170052675421</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034705621605317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9480885297722073</v>
+        <v>0.9887441258584322</v>
       </c>
       <c r="D10">
-        <v>0.9795027383813407</v>
+        <v>1.016078145196145</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547276</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9118063673588122</v>
+        <v>1.020028092386272</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027725433351008</v>
+        <v>1.042637828108158</v>
       </c>
       <c r="J10">
-        <v>0.9785246912502327</v>
+        <v>1.017411555031095</v>
       </c>
       <c r="K10">
-        <v>0.9942522089551262</v>
+        <v>1.030163047540383</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689353</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9279741359982066</v>
+        <v>1.034044910212236</v>
       </c>
       <c r="N10">
-        <v>0.9964218860214873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009199558459845</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035568256439086</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032434904837774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9430555050066457</v>
+        <v>0.9863830095652015</v>
       </c>
       <c r="D11">
-        <v>0.9760311886563664</v>
+        <v>1.014807066119144</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016261</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9042822763205971</v>
+        <v>1.019131145226887</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026562227179123</v>
+        <v>1.042415858010088</v>
       </c>
       <c r="J11">
-        <v>0.9750053266662729</v>
+        <v>1.016333452128899</v>
       </c>
       <c r="K11">
-        <v>0.9914197339300719</v>
+        <v>1.029455042808445</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416576</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9212671388804887</v>
+        <v>1.033701074854025</v>
       </c>
       <c r="N11">
-        <v>0.9952182403075697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008926994065897</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035733743014251</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03196728767168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9411475960851896</v>
+        <v>0.985776314508349</v>
       </c>
       <c r="D12">
-        <v>0.9747166837641916</v>
+        <v>1.014594808548705</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411973</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9014207316665507</v>
+        <v>1.019210707564924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026119074447257</v>
+        <v>1.042458582534366</v>
       </c>
       <c r="J12">
-        <v>0.9736698343398094</v>
+        <v>1.016195088087396</v>
       </c>
       <c r="K12">
-        <v>0.9903448495614813</v>
+        <v>1.029447636776532</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9187161374397834</v>
+        <v>1.033978888919658</v>
       </c>
       <c r="N12">
-        <v>0.9947615065859234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008959444643216</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036280728003641</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031962051328446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.941558650560126</v>
+        <v>0.9865049474663085</v>
       </c>
       <c r="D13">
-        <v>0.9749998203004785</v>
+        <v>1.015208670965994</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9020376932752102</v>
+        <v>1.020077917865738</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026214648834867</v>
+        <v>1.042724483803847</v>
       </c>
       <c r="J13">
-        <v>0.9739576254549988</v>
+        <v>1.016796875360775</v>
       </c>
       <c r="K13">
-        <v>0.9905764816268409</v>
+        <v>1.030007108482419</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.9192661515875785</v>
+        <v>1.034787529643385</v>
       </c>
       <c r="N13">
-        <v>0.9948599291385825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009240820209803</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037197330791027</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032355117070265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9428986028790858</v>
+        <v>0.9876185365499399</v>
       </c>
       <c r="D14">
-        <v>0.9759230554227162</v>
+        <v>1.016011955804146</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9040471482238495</v>
+        <v>1.021039887096479</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026525827525514</v>
+        <v>1.043010953714924</v>
       </c>
       <c r="J14">
-        <v>0.9748955268130103</v>
+        <v>1.017552031606675</v>
       </c>
       <c r="K14">
-        <v>0.9913313607909033</v>
+        <v>1.030654679611686</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9210575309642934</v>
+        <v>1.035592101608932</v>
       </c>
       <c r="N14">
-        <v>0.9951806887259059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009550002369722</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038006906255895</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032814403811158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9437189853399393</v>
+        <v>0.98819008844138</v>
       </c>
       <c r="D15">
-        <v>0.9764885051178693</v>
+        <v>1.016399097591427</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717477</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9052761562811931</v>
+        <v>1.021464874507868</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026716058560118</v>
+        <v>1.043134909226466</v>
       </c>
       <c r="J15">
-        <v>0.9754695730532125</v>
+        <v>1.017908444099772</v>
       </c>
       <c r="K15">
-        <v>0.9917933844126048</v>
+        <v>1.030947990822</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767195</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>0.922153138049546</v>
+        <v>1.035923293498743</v>
       </c>
       <c r="N15">
-        <v>0.9953770133954023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009684388619014</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038306261144401</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033027675247134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9484173742060152</v>
+        <v>0.9910536434454916</v>
       </c>
       <c r="D16">
-        <v>0.9797297526964525</v>
+        <v>1.01821786120053</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017262</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9122967772655989</v>
+        <v>1.023309718567437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027801125949798</v>
+        <v>1.043643608231386</v>
       </c>
       <c r="J16">
-        <v>0.9787544481684083</v>
+        <v>1.019548826835281</v>
       </c>
       <c r="K16">
-        <v>0.9944371118360407</v>
+        <v>1.032230061424304</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175719</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9284112516301765</v>
+        <v>1.037235007059922</v>
       </c>
       <c r="N16">
-        <v>0.9965004649204082</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010240842396866</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03930427718773</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033937323054312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9513000701687091</v>
+        <v>0.9926687774502005</v>
       </c>
       <c r="D17">
-        <v>0.981720771758368</v>
+        <v>1.019193991416031</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9165897869640025</v>
+        <v>1.024217111531483</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028462949967321</v>
+        <v>1.043881652317684</v>
       </c>
       <c r="J17">
-        <v>0.9807675020244297</v>
+        <v>1.020411628416853</v>
       </c>
       <c r="K17">
-        <v>0.9960570771458599</v>
+        <v>1.032873646870048</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9322374774110773</v>
+        <v>1.037813445014074</v>
       </c>
       <c r="N17">
-        <v>0.9971889422118347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010505848577033</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.0396323175275</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03439495764257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9529593729079193</v>
+        <v>0.9933355435187083</v>
       </c>
       <c r="D18">
-        <v>0.982867600752108</v>
+        <v>1.019501672388236</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215681</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9190561312723977</v>
+        <v>1.024342348440245</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028842465705431</v>
+        <v>1.043893863194981</v>
       </c>
       <c r="J18">
-        <v>0.9819253776113555</v>
+        <v>1.020652712001841</v>
       </c>
       <c r="K18">
-        <v>0.9969887632575745</v>
+        <v>1.032992063118615</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865724</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9344354230096699</v>
+        <v>1.037753725858597</v>
       </c>
       <c r="N18">
-        <v>0.9975849351992673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01052947523277</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039347122265185</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034467017249465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9535214990000508</v>
+        <v>0.993165941260547</v>
       </c>
       <c r="D19">
-        <v>0.9832562418109196</v>
+        <v>1.019228809235372</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684961</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9198908970248492</v>
+        <v>1.023769839480373</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028970789307726</v>
+        <v>1.043716242605094</v>
       </c>
       <c r="J19">
-        <v>0.9823174891947947</v>
+        <v>1.020353487395682</v>
       </c>
       <c r="K19">
-        <v>0.9973042583459275</v>
+        <v>1.032660873230328</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816586</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9351793029428883</v>
+        <v>1.037128098357935</v>
       </c>
       <c r="N19">
-        <v>0.9977190352184944</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010350517357316</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038526399331494</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034239266959789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9509930966783818</v>
+        <v>0.9906290119284638</v>
       </c>
       <c r="D20">
-        <v>0.9815086687010299</v>
+        <v>1.017308585779032</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9161331349879809</v>
+        <v>1.021277148675482</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02839262208616</v>
+        <v>1.042999083581597</v>
       </c>
       <c r="J20">
-        <v>0.980553224113233</v>
+        <v>1.01852601081419</v>
       </c>
       <c r="K20">
-        <v>0.9958846501274996</v>
+        <v>1.03105376253092</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9318305007643812</v>
+        <v>1.034955905810788</v>
       </c>
       <c r="N20">
-        <v>0.9971156584568381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009595078593948</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036278629904904</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033106913062601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9425051121302706</v>
+        <v>0.985151798120529</v>
       </c>
       <c r="D21">
-        <v>0.9756518954851855</v>
+        <v>1.013745252909494</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9034573209528075</v>
+        <v>1.017556215760905</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026434506607147</v>
+        <v>1.041947855297216</v>
       </c>
       <c r="J21">
-        <v>0.974620140422581</v>
+        <v>1.015283706801101</v>
       </c>
       <c r="K21">
-        <v>0.9911097138200463</v>
+        <v>1.028470813988151</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9205317191034895</v>
+        <v>1.032212442808943</v>
       </c>
       <c r="N21">
-        <v>0.9950865067995861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008447517612277</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03406634908523</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031283908702618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9369439181821565</v>
+        <v>0.9816587158032742</v>
       </c>
       <c r="D22">
-        <v>0.9718234321174359</v>
+        <v>1.011486524211626</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.89509672724347</v>
+        <v>1.015232876823037</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025138703108628</v>
+        <v>1.041274272319791</v>
       </c>
       <c r="J22">
-        <v>0.9707247926424676</v>
+        <v>1.013225581037722</v>
       </c>
       <c r="K22">
-        <v>0.9879745285071523</v>
+        <v>1.026833814255711</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9130782211753833</v>
+        <v>1.03050848920314</v>
       </c>
       <c r="N22">
-        <v>0.9937543655390765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007721551980242</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.032717770579695</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03011290087386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9399146229890958</v>
+        <v>0.9835009051715753</v>
       </c>
       <c r="D23">
-        <v>0.973867639675245</v>
+        <v>1.012670526490432</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8995686302034354</v>
+        <v>1.016455057943255</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025832078751799</v>
+        <v>1.041624934452772</v>
       </c>
       <c r="J23">
-        <v>0.9728063909172217</v>
+        <v>1.014304800320426</v>
       </c>
       <c r="K23">
-        <v>0.9896498978078914</v>
+        <v>1.027687990851712</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9170649916668371</v>
+        <v>1.031402005184994</v>
       </c>
       <c r="N23">
-        <v>0.9944662188683991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008099543700051</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033424935958858</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030707160124221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9511318728961574</v>
+        <v>0.9906181602519837</v>
       </c>
       <c r="D24">
-        <v>0.981604553587367</v>
+        <v>1.017268726462011</v>
       </c>
       <c r="E24">
-        <v>0.938164042401182</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9163395923203486</v>
+        <v>1.021202860495489</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028424420299584</v>
+        <v>1.042968492936069</v>
       </c>
       <c r="J24">
-        <v>0.9806500972757868</v>
+        <v>1.01848220157182</v>
       </c>
       <c r="K24">
-        <v>0.9959626031594763</v>
+        <v>1.030999221944984</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9320145000653779</v>
+        <v>1.034867587518229</v>
       </c>
       <c r="N24">
-        <v>0.9971487894252948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009566690734558</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036167733950804</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03304084285236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9632894832792717</v>
+        <v>0.998561489688837</v>
       </c>
       <c r="D25">
-        <v>0.9900193208700099</v>
+        <v>1.02242386774947</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718021</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9343389716303081</v>
+        <v>1.026544561685212</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031179137334706</v>
+        <v>1.044424466826862</v>
       </c>
       <c r="J25">
-        <v>0.9891187692462443</v>
+        <v>1.023137362614566</v>
       </c>
       <c r="K25">
-        <v>1.002774575473098</v>
+        <v>1.034683776571676</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005834</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9480499624179743</v>
+        <v>1.038744322913776</v>
       </c>
       <c r="N25">
-        <v>1.000044738480681</v>
+        <v>1.0112002151242</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039235922066784</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035643153354192</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.004619043237994</v>
+        <v>1.004440846326288</v>
       </c>
       <c r="D2">
-        <v>1.026352196913749</v>
+        <v>1.02576172311971</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.030643673972724</v>
+        <v>1.030259954029727</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045482709919197</v>
+        <v>1.045277508948649</v>
       </c>
       <c r="J2">
-        <v>1.026662471804535</v>
+        <v>1.026489538919177</v>
       </c>
       <c r="K2">
-        <v>1.037456216902438</v>
+        <v>1.036873454092051</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.041691983804288</v>
+        <v>1.041313221511793</v>
       </c>
       <c r="N2">
-        <v>1.012429093212683</v>
+        <v>1.013986216311433</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041568798345434</v>
+        <v>1.041269033767712</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037555055283916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037151776333687</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021790661733135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008920574442669</v>
+        <v>1.008467475480226</v>
       </c>
       <c r="D3">
-        <v>1.029160252314982</v>
+        <v>1.028297934279389</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.033574471357303</v>
+        <v>1.032981600038665</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046221186575615</v>
+        <v>1.045897858702404</v>
       </c>
       <c r="J3">
-        <v>1.029170974751346</v>
+        <v>1.028729940292658</v>
       </c>
       <c r="K3">
-        <v>1.039433137141528</v>
+        <v>1.038581101412522</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.043795053654895</v>
+        <v>1.043209174877134</v>
       </c>
       <c r="N3">
-        <v>1.01330674290931</v>
+        <v>1.014605746508227</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043233232751837</v>
+        <v>1.042769550583064</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038950246852337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038356288804916</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022154204823618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011650481832289</v>
+        <v>1.011025418867057</v>
       </c>
       <c r="D4">
-        <v>1.030945947678988</v>
+        <v>1.029912727670274</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.035441958433197</v>
+        <v>1.03471782421684</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046679641133969</v>
+        <v>1.046282001640979</v>
       </c>
       <c r="J4">
-        <v>1.030760790340623</v>
+        <v>1.0301512371779</v>
       </c>
       <c r="K4">
-        <v>1.040684695299413</v>
+        <v>1.039663054505324</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.045130650490024</v>
+        <v>1.044414542154398</v>
       </c>
       <c r="N4">
-        <v>1.013862634081984</v>
+        <v>1.014998679834551</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044290263342939</v>
+        <v>1.043723514348796</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039836104251265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039122301015063</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022382090141963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01279091952219</v>
+        <v>1.01209441327224</v>
       </c>
       <c r="D5">
-        <v>1.031694893560357</v>
+        <v>1.030590564926599</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.036224491339247</v>
+        <v>1.035445776742512</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046870487632862</v>
+        <v>1.046441874213618</v>
       </c>
       <c r="J5">
-        <v>1.031426422562129</v>
+        <v>1.030746679171006</v>
       </c>
       <c r="K5">
-        <v>1.041209866209109</v>
+        <v>1.040117585049758</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.045690378550305</v>
+        <v>1.044920065090104</v>
       </c>
       <c r="N5">
-        <v>1.014096000858667</v>
+        <v>1.0151637891236</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044733248126374</v>
+        <v>1.044123599969605</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040214613394685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039451571625857</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022477842650733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012987971802176</v>
+        <v>1.012278939962456</v>
       </c>
       <c r="D6">
-        <v>1.031826953641707</v>
+        <v>1.030710249678453</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.036360564865211</v>
+        <v>1.035572335127871</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046905532850041</v>
+        <v>1.046471473660388</v>
       </c>
       <c r="J6">
-        <v>1.031543868209159</v>
+        <v>1.030851812264848</v>
       </c>
       <c r="K6">
-        <v>1.041304328726674</v>
+        <v>1.040199751516917</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.045789036498286</v>
+        <v>1.045009271602221</v>
       </c>
       <c r="N6">
-        <v>1.014138033972346</v>
+        <v>1.015193568626537</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044811328818159</v>
+        <v>1.044194200586816</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040290147749291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039519280262215</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022495862855402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011682733601079</v>
+        <v>1.011067403384755</v>
       </c>
       <c r="D7">
-        <v>1.030974121093053</v>
+        <v>1.029947274478773</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.035466115472378</v>
+        <v>1.034747554588769</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046691029538968</v>
+        <v>1.046296357095025</v>
       </c>
       <c r="J7">
-        <v>1.030786259391908</v>
+        <v>1.030186190395761</v>
       </c>
       <c r="K7">
-        <v>1.040709672426334</v>
+        <v>1.039694328901835</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.045151675734443</v>
+        <v>1.044441075798443</v>
       </c>
       <c r="N7">
-        <v>1.013873920150782</v>
+        <v>1.015036649896336</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044306903327106</v>
+        <v>1.043744513855362</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039873874263152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039166521848518</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022391693200399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006105626495782</v>
+        <v>1.005869344548394</v>
       </c>
       <c r="D8">
-        <v>1.02733063545271</v>
+        <v>1.026672609286343</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.031657517448696</v>
+        <v>1.031223912324182</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045747508222345</v>
+        <v>1.045513905936943</v>
       </c>
       <c r="J8">
-        <v>1.027538187915827</v>
+        <v>1.027308648829964</v>
       </c>
       <c r="K8">
-        <v>1.038152697146653</v>
+        <v>1.037503008611205</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.042425084973426</v>
+        <v>1.041996915104841</v>
       </c>
       <c r="N8">
-        <v>1.012738667842994</v>
+        <v>1.014295997127859</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042148997676713</v>
+        <v>1.041810130627389</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038070455370559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03762211665247</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021930853058555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9958204104232459</v>
+        <v>0.9962641199207041</v>
       </c>
       <c r="D9">
-        <v>1.020631369623956</v>
+        <v>1.020638440756529</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.024692801294685</v>
+        <v>1.02477275715814</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043918577246263</v>
+        <v>1.043974084771519</v>
       </c>
       <c r="J9">
-        <v>1.021521629018797</v>
+        <v>1.021949495006486</v>
       </c>
       <c r="K9">
-        <v>1.033398356271158</v>
+        <v>1.03340531852564</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.037397567357965</v>
+        <v>1.03747630462007</v>
       </c>
       <c r="N9">
-        <v>1.010629269919733</v>
+        <v>1.012821910260383</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038170052675421</v>
+        <v>1.038232368138771</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034705621605317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03472131475892</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021043085376138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9887441258584322</v>
+        <v>0.9897198298964671</v>
       </c>
       <c r="D10">
-        <v>1.016078145196145</v>
+        <v>1.01658580647015</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.020028092386272</v>
+        <v>1.020499042714271</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042637828108158</v>
+        <v>1.04291112019931</v>
       </c>
       <c r="J10">
-        <v>1.017411555031095</v>
+        <v>1.018347340459828</v>
       </c>
       <c r="K10">
-        <v>1.030163047540383</v>
+        <v>1.030661920016591</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.034044910212236</v>
+        <v>1.03450778829974</v>
       </c>
       <c r="N10">
-        <v>1.009199558459845</v>
+        <v>1.011954117627352</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035568256439086</v>
+        <v>1.035934572855308</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032434904837774</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032800094691565</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020449617222119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9863830095652015</v>
+        <v>0.9875572179053702</v>
       </c>
       <c r="D11">
-        <v>1.014807066119144</v>
+        <v>1.015482677567692</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.019131145226887</v>
+        <v>1.019737254098372</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042415858010088</v>
+        <v>1.042754126300088</v>
       </c>
       <c r="J11">
-        <v>1.016333452128899</v>
+        <v>1.017456951606486</v>
       </c>
       <c r="K11">
-        <v>1.029455042808445</v>
+        <v>1.030118402888915</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.033701074854025</v>
+        <v>1.034296312524909</v>
       </c>
       <c r="N11">
-        <v>1.008926994065897</v>
+        <v>1.012013215266895</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035733743014251</v>
+        <v>1.036204568958762</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03196728767168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032451977068537</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020403840236653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.985776314508349</v>
+        <v>0.9869828270538219</v>
       </c>
       <c r="D12">
-        <v>1.014594808548705</v>
+        <v>1.015291985718056</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.019210707564924</v>
+        <v>1.019835488126697</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042458582534366</v>
+        <v>1.04279853042447</v>
       </c>
       <c r="J12">
-        <v>1.016195088087396</v>
+        <v>1.017348500081999</v>
       </c>
       <c r="K12">
-        <v>1.029447636776532</v>
+        <v>1.030131964734422</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.033978888919658</v>
+        <v>1.034592288799043</v>
       </c>
       <c r="N12">
-        <v>1.008959444643216</v>
+        <v>1.012140051011214</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036280728003641</v>
+        <v>1.036765755012891</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031962051328446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032461565589861</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020457289544599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9865049474663085</v>
+        <v>0.9875958147401939</v>
       </c>
       <c r="D13">
-        <v>1.015208670965994</v>
+        <v>1.015800092167452</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.020077917865738</v>
+        <v>1.020619507225583</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042724483803847</v>
+        <v>1.043010532582688</v>
       </c>
       <c r="J13">
-        <v>1.016796875360775</v>
+        <v>1.017840000980786</v>
       </c>
       <c r="K13">
-        <v>1.030007108482419</v>
+        <v>1.030587681693885</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.034787529643385</v>
+        <v>1.035319307341722</v>
       </c>
       <c r="N13">
-        <v>1.009240820209803</v>
+        <v>1.012296821673377</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037197330791027</v>
+        <v>1.03761771156086</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032355117070265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032781024512565</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020596184506113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9876185365499399</v>
+        <v>0.9885631265157764</v>
       </c>
       <c r="D14">
-        <v>1.016011955804146</v>
+        <v>1.016473436465721</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.021039887096479</v>
+        <v>1.021478532490524</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043010953714924</v>
+        <v>1.043235378387025</v>
       </c>
       <c r="J14">
-        <v>1.017552031606675</v>
+        <v>1.018455902551023</v>
       </c>
       <c r="K14">
-        <v>1.030654679611686</v>
+        <v>1.031107804490625</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.035592101608932</v>
+        <v>1.036022905687546</v>
       </c>
       <c r="N14">
-        <v>1.009550002369722</v>
+        <v>1.01242183776348</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038006906255895</v>
+        <v>1.038347419343143</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032814403811158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033150330321262</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02073260614575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.98819008844138</v>
+        <v>0.9890671440169293</v>
       </c>
       <c r="D15">
-        <v>1.016399097591427</v>
+        <v>1.016801397456089</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.021464874507868</v>
+        <v>1.02185645776148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043134909226466</v>
+        <v>1.043332447083632</v>
       </c>
       <c r="J15">
-        <v>1.017908444099772</v>
+        <v>1.018748033496165</v>
       </c>
       <c r="K15">
-        <v>1.030947990822</v>
+        <v>1.031343062838021</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767192</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.035923293498743</v>
+        <v>1.036307931572856</v>
       </c>
       <c r="N15">
-        <v>1.009684388619014</v>
+        <v>1.012465745701608</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038306261144401</v>
+        <v>1.038610276028735</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033027675247134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033323121230998</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020788558547489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9910536434454916</v>
+        <v>0.9916406986048564</v>
       </c>
       <c r="D16">
-        <v>1.01821786120053</v>
+        <v>1.018367053184988</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.023309718567437</v>
+        <v>1.02349970676946</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043643608231386</v>
+        <v>1.043732018553396</v>
       </c>
       <c r="J16">
-        <v>1.019548826835281</v>
+        <v>1.020112085882288</v>
       </c>
       <c r="K16">
-        <v>1.032230061424304</v>
+        <v>1.032376690909296</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.037235007059922</v>
+        <v>1.037421773997397</v>
       </c>
       <c r="N16">
-        <v>1.010240842396866</v>
+        <v>1.012618903735053</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03930427718773</v>
+        <v>1.039451900532487</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033937323054312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034057404487187</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02100319885214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9926687774502005</v>
+        <v>0.9931248238774615</v>
       </c>
       <c r="D17">
-        <v>1.019193991416031</v>
+        <v>1.019227201327385</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.024217111531483</v>
+        <v>1.024315026624942</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043881652317684</v>
+        <v>1.04392270327155</v>
       </c>
       <c r="J17">
-        <v>1.020411628416853</v>
+        <v>1.020849793063297</v>
       </c>
       <c r="K17">
-        <v>1.032873646870048</v>
+        <v>1.032906302430867</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.037813445014074</v>
+        <v>1.037909746368774</v>
       </c>
       <c r="N17">
-        <v>1.010505848577033</v>
+        <v>1.012702099392966</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.0396323175275</v>
+        <v>1.03970844313893</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03439495764257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034434700103749</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021098345559665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9933355435187083</v>
+        <v>0.9937697314527051</v>
       </c>
       <c r="D18">
-        <v>1.019501672388236</v>
+        <v>1.019515860865083</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.024342348440245</v>
+        <v>1.024424891589927</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043893863194981</v>
+        <v>1.043931892360684</v>
       </c>
       <c r="J18">
-        <v>1.020652712001841</v>
+        <v>1.021070194823332</v>
       </c>
       <c r="K18">
-        <v>1.032992063118615</v>
+        <v>1.033006018590075</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.037753725858597</v>
+        <v>1.037834929989477</v>
       </c>
       <c r="N18">
-        <v>1.01052947523277</v>
+        <v>1.012680987592118</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039347122265185</v>
+        <v>1.039411327026923</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034467017249465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034492406771141</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021084939632294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.993165941260547</v>
+        <v>0.993663106824357</v>
       </c>
       <c r="D19">
-        <v>1.019228809235372</v>
+        <v>1.019301446892585</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.023769839480373</v>
+        <v>1.023897908834028</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043716242605094</v>
+        <v>1.043786469314905</v>
       </c>
       <c r="J19">
-        <v>1.020353487395682</v>
+        <v>1.020831629428657</v>
       </c>
       <c r="K19">
-        <v>1.032660873230328</v>
+        <v>1.032732323659915</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.037128098357935</v>
+        <v>1.037254098391176</v>
       </c>
       <c r="N19">
-        <v>1.010350517357316</v>
+        <v>1.012554463992249</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038526399331494</v>
+        <v>1.038626055025992</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034239266959789</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034305932652682</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020979585351423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9906290119284638</v>
+        <v>0.991424012413922</v>
       </c>
       <c r="D20">
-        <v>1.017308585779032</v>
+        <v>1.017654865307525</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.021277148675482</v>
+        <v>1.021620137240073</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042999083581597</v>
+        <v>1.043200370910127</v>
       </c>
       <c r="J20">
-        <v>1.01852601081419</v>
+        <v>1.019289574304457</v>
       </c>
       <c r="K20">
-        <v>1.03105376253092</v>
+        <v>1.031394219973946</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.034955905810788</v>
+        <v>1.035293185169856</v>
       </c>
       <c r="N20">
-        <v>1.009595078593948</v>
+        <v>1.012116141688755</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036278629904904</v>
+        <v>1.036545552122011</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033106913062601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033364173789701</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020611619391069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.985151798120529</v>
+        <v>0.9865531735654726</v>
       </c>
       <c r="D21">
-        <v>1.013745252909494</v>
+        <v>1.014623379832675</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.017556215760905</v>
+        <v>1.018323502545933</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041947855297216</v>
+        <v>1.042388615464757</v>
       </c>
       <c r="J21">
-        <v>1.015283706801101</v>
+        <v>1.016624061552467</v>
       </c>
       <c r="K21">
-        <v>1.028470813988151</v>
+        <v>1.029332904767659</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.032212442808943</v>
+        <v>1.032965851706864</v>
       </c>
       <c r="N21">
-        <v>1.008447517612277</v>
+        <v>1.011806638653231</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03406634908523</v>
+        <v>1.034662626846248</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031283908702618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031910321028902</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020163388917501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9816587158032742</v>
+        <v>0.9834478364092094</v>
       </c>
       <c r="D22">
-        <v>1.011486524211626</v>
+        <v>1.01270527524915</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.015232876823037</v>
+        <v>1.01627205551306</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041274272319791</v>
+        <v>1.041868679252201</v>
       </c>
       <c r="J22">
-        <v>1.013225581037722</v>
+        <v>1.014932112376317</v>
       </c>
       <c r="K22">
-        <v>1.026833814255711</v>
+        <v>1.028029171170784</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.03050848920314</v>
+        <v>1.031527908069016</v>
       </c>
       <c r="N22">
-        <v>1.007721551980242</v>
+        <v>1.011606417004041</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032717770579695</v>
+        <v>1.033524580633773</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03011290087386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030973663668203</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019880082404224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9835009051715753</v>
+        <v>0.9850642061024136</v>
       </c>
       <c r="D23">
-        <v>1.012670526490432</v>
+        <v>1.013693589074602</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.016455057943255</v>
+        <v>1.017337337663438</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041624934452772</v>
+        <v>1.042130680374158</v>
       </c>
       <c r="J23">
-        <v>1.014304800320426</v>
+        <v>1.015798117210252</v>
       </c>
       <c r="K23">
-        <v>1.027687990851712</v>
+        <v>1.028691922951113</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.031402005184994</v>
+        <v>1.032267943715241</v>
       </c>
       <c r="N23">
-        <v>1.008099543700051</v>
+        <v>1.011660571443645</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033424935958858</v>
+        <v>1.034110274726679</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030707160124221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031431637041983</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020020376971397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9906181602519837</v>
+        <v>0.9914207001288268</v>
       </c>
       <c r="D24">
-        <v>1.017268726462011</v>
+        <v>1.017621835804258</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.021202860495489</v>
+        <v>1.021551237683759</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042968492936069</v>
+        <v>1.043173963384069</v>
       </c>
       <c r="J24">
-        <v>1.01848220157182</v>
+        <v>1.019253050364205</v>
       </c>
       <c r="K24">
-        <v>1.030999221944984</v>
+        <v>1.031346401438897</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.034867587518229</v>
+        <v>1.035210172189733</v>
       </c>
       <c r="N24">
-        <v>1.009566690734558</v>
+        <v>1.012093198173716</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036167733950804</v>
+        <v>1.036438868339439</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03304084285236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033300196142429</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020591989934662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.998561489688837</v>
+        <v>0.998804694168943</v>
       </c>
       <c r="D25">
-        <v>1.02242386774947</v>
+        <v>1.022240253514652</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.026544561685212</v>
+        <v>1.026476096924798</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044424466826862</v>
+        <v>1.044396334767459</v>
       </c>
       <c r="J25">
-        <v>1.023137362614566</v>
+        <v>1.023372352192412</v>
       </c>
       <c r="K25">
-        <v>1.034683776571676</v>
+        <v>1.034502856783017</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.038744322913776</v>
+        <v>1.038676852494808</v>
       </c>
       <c r="N25">
-        <v>1.0112002151242</v>
+        <v>1.013184910098124</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039235922066784</v>
+        <v>1.039182523658082</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035643153354192</v>
+        <v>1.03552879294561</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021285060802158</v>
       </c>
     </row>
   </sheetData>
